--- a/DOKUMENT/PENGUJIAN/Uji valid dan reli.xlsx
+++ b/DOKUMENT/PENGUJIAN/Uji valid dan reli.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\PENGUJIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17663D7-DEB3-4137-9664-EE299093B39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25DFCF-0245-4891-9DC2-CC5CD2113326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Lembar1" sheetId="3" r:id="rId2"/>
+    <sheet name="rTabel" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>rHitung</t>
   </si>
@@ -203,6 +203,36 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R30</t>
   </si>
 </sst>
 </file>
@@ -226,12 +256,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -246,6 +270,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -294,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -392,6 +422,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -415,37 +456,41 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEF6905-84EA-4998-A96D-B168CF5C9440}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -725,1191 +770,1611 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20">
-        <v>4</v>
-      </c>
-      <c r="C2" s="20">
-        <v>4</v>
-      </c>
-      <c r="D2" s="20">
-        <v>4</v>
-      </c>
-      <c r="E2" s="20">
-        <v>4</v>
-      </c>
-      <c r="F2" s="20">
-        <v>3</v>
-      </c>
-      <c r="G2" s="20">
-        <v>4</v>
-      </c>
-      <c r="H2" s="20">
-        <v>4</v>
-      </c>
-      <c r="I2" s="20">
-        <v>3</v>
-      </c>
-      <c r="J2" s="20">
-        <v>4</v>
-      </c>
-      <c r="K2" s="20">
-        <v>3</v>
-      </c>
-      <c r="L2" s="20">
-        <v>3</v>
-      </c>
-      <c r="M2" s="21">
+      <c r="B2" s="24">
+        <v>4</v>
+      </c>
+      <c r="C2" s="24">
+        <v>4</v>
+      </c>
+      <c r="D2" s="24">
+        <v>4</v>
+      </c>
+      <c r="E2" s="24">
+        <v>4</v>
+      </c>
+      <c r="F2" s="24">
+        <v>3</v>
+      </c>
+      <c r="G2" s="24">
+        <v>4</v>
+      </c>
+      <c r="H2" s="24">
+        <v>4</v>
+      </c>
+      <c r="I2" s="24">
+        <v>3</v>
+      </c>
+      <c r="J2" s="24">
+        <v>4</v>
+      </c>
+      <c r="K2" s="24">
+        <v>3</v>
+      </c>
+      <c r="L2" s="24">
+        <v>3</v>
+      </c>
+      <c r="M2" s="22">
         <f>SUM(B2:L2)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="20">
-        <v>4</v>
-      </c>
-      <c r="C3" s="20">
-        <v>4</v>
-      </c>
-      <c r="D3" s="20">
-        <v>3</v>
-      </c>
-      <c r="E3" s="20">
-        <v>4</v>
-      </c>
-      <c r="F3" s="20">
-        <v>3</v>
-      </c>
-      <c r="G3" s="20">
-        <v>3</v>
-      </c>
-      <c r="H3" s="20">
-        <v>3</v>
-      </c>
-      <c r="I3" s="20">
-        <v>3</v>
-      </c>
-      <c r="J3" s="20">
-        <v>4</v>
-      </c>
-      <c r="K3" s="20">
-        <v>3</v>
-      </c>
-      <c r="L3" s="20">
-        <v>4</v>
-      </c>
-      <c r="M3" s="21">
-        <f t="shared" ref="M3:M21" si="0">SUM(B3:L3)</f>
+      <c r="B3" s="24">
+        <v>4</v>
+      </c>
+      <c r="C3" s="24">
+        <v>4</v>
+      </c>
+      <c r="D3" s="24">
+        <v>3</v>
+      </c>
+      <c r="E3" s="24">
+        <v>4</v>
+      </c>
+      <c r="F3" s="24">
+        <v>3</v>
+      </c>
+      <c r="G3" s="24">
+        <v>3</v>
+      </c>
+      <c r="H3" s="24">
+        <v>3</v>
+      </c>
+      <c r="I3" s="24">
+        <v>3</v>
+      </c>
+      <c r="J3" s="24">
+        <v>4</v>
+      </c>
+      <c r="K3" s="24">
+        <v>3</v>
+      </c>
+      <c r="L3" s="24">
+        <v>4</v>
+      </c>
+      <c r="M3" s="22">
+        <f t="shared" ref="M3:M31" si="0">SUM(B3:L3)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="20">
-        <v>4</v>
-      </c>
-      <c r="C4" s="20">
-        <v>4</v>
-      </c>
-      <c r="D4" s="20">
-        <v>4</v>
-      </c>
-      <c r="E4" s="20">
-        <v>3</v>
-      </c>
-      <c r="F4" s="20">
-        <v>4</v>
-      </c>
-      <c r="G4" s="20">
-        <v>4</v>
-      </c>
-      <c r="H4" s="20">
-        <v>4</v>
-      </c>
-      <c r="I4" s="20">
-        <v>4</v>
-      </c>
-      <c r="J4" s="20">
-        <v>4</v>
-      </c>
-      <c r="K4" s="20">
-        <v>4</v>
-      </c>
-      <c r="L4" s="20">
-        <v>4</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="B4" s="24">
+        <v>4</v>
+      </c>
+      <c r="C4" s="24">
+        <v>4</v>
+      </c>
+      <c r="D4" s="24">
+        <v>4</v>
+      </c>
+      <c r="E4" s="24">
+        <v>3</v>
+      </c>
+      <c r="F4" s="24">
+        <v>4</v>
+      </c>
+      <c r="G4" s="24">
+        <v>4</v>
+      </c>
+      <c r="H4" s="24">
+        <v>4</v>
+      </c>
+      <c r="I4" s="24">
+        <v>4</v>
+      </c>
+      <c r="J4" s="24">
+        <v>4</v>
+      </c>
+      <c r="K4" s="24">
+        <v>4</v>
+      </c>
+      <c r="L4" s="24">
+        <v>4</v>
+      </c>
+      <c r="M4" s="22">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="20">
-        <v>4</v>
-      </c>
-      <c r="C5" s="20">
-        <v>4</v>
-      </c>
-      <c r="D5" s="20">
-        <v>3</v>
-      </c>
-      <c r="E5" s="20">
-        <v>4</v>
-      </c>
-      <c r="F5" s="20">
-        <v>4</v>
-      </c>
-      <c r="G5" s="20">
-        <v>4</v>
-      </c>
-      <c r="H5" s="20">
-        <v>4</v>
-      </c>
-      <c r="I5" s="20">
-        <v>4</v>
-      </c>
-      <c r="J5" s="20">
-        <v>4</v>
-      </c>
-      <c r="K5" s="20">
-        <v>3</v>
-      </c>
-      <c r="L5" s="20">
-        <v>4</v>
-      </c>
-      <c r="M5" s="21">
+      <c r="B5" s="24">
+        <v>4</v>
+      </c>
+      <c r="C5" s="24">
+        <v>4</v>
+      </c>
+      <c r="D5" s="24">
+        <v>3</v>
+      </c>
+      <c r="E5" s="24">
+        <v>4</v>
+      </c>
+      <c r="F5" s="24">
+        <v>4</v>
+      </c>
+      <c r="G5" s="24">
+        <v>4</v>
+      </c>
+      <c r="H5" s="24">
+        <v>4</v>
+      </c>
+      <c r="I5" s="24">
+        <v>4</v>
+      </c>
+      <c r="J5" s="24">
+        <v>4</v>
+      </c>
+      <c r="K5" s="24">
+        <v>3</v>
+      </c>
+      <c r="L5" s="24">
+        <v>4</v>
+      </c>
+      <c r="M5" s="22">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="20">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20">
-        <v>3</v>
-      </c>
-      <c r="D6" s="20">
-        <v>3</v>
-      </c>
-      <c r="E6" s="20">
-        <v>3</v>
-      </c>
-      <c r="F6" s="20">
-        <v>4</v>
-      </c>
-      <c r="G6" s="20">
-        <v>3</v>
-      </c>
-      <c r="H6" s="20">
-        <v>3</v>
-      </c>
-      <c r="I6" s="20">
-        <v>3</v>
-      </c>
-      <c r="J6" s="20">
-        <v>3</v>
-      </c>
-      <c r="K6" s="20">
-        <v>3</v>
-      </c>
-      <c r="L6" s="20">
-        <v>3</v>
-      </c>
-      <c r="M6" s="21">
+      <c r="B6" s="24">
+        <v>3</v>
+      </c>
+      <c r="C6" s="24">
+        <v>3</v>
+      </c>
+      <c r="D6" s="24">
+        <v>3</v>
+      </c>
+      <c r="E6" s="24">
+        <v>3</v>
+      </c>
+      <c r="F6" s="24">
+        <v>4</v>
+      </c>
+      <c r="G6" s="24">
+        <v>3</v>
+      </c>
+      <c r="H6" s="24">
+        <v>3</v>
+      </c>
+      <c r="I6" s="24">
+        <v>3</v>
+      </c>
+      <c r="J6" s="24">
+        <v>3</v>
+      </c>
+      <c r="K6" s="24">
+        <v>3</v>
+      </c>
+      <c r="L6" s="24">
+        <v>3</v>
+      </c>
+      <c r="M6" s="22">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="20">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20">
-        <v>3</v>
-      </c>
-      <c r="D7" s="20">
-        <v>3</v>
-      </c>
-      <c r="E7" s="20">
-        <v>3</v>
-      </c>
-      <c r="F7" s="20">
-        <v>3</v>
-      </c>
-      <c r="G7" s="20">
-        <v>3</v>
-      </c>
-      <c r="H7" s="20">
-        <v>3</v>
-      </c>
-      <c r="I7" s="20">
-        <v>3</v>
-      </c>
-      <c r="J7" s="20">
-        <v>3</v>
-      </c>
-      <c r="K7" s="20">
-        <v>3</v>
-      </c>
-      <c r="L7" s="20">
-        <v>3</v>
-      </c>
-      <c r="M7" s="21">
+      <c r="B7" s="24">
+        <v>3</v>
+      </c>
+      <c r="C7" s="24">
+        <v>3</v>
+      </c>
+      <c r="D7" s="24">
+        <v>3</v>
+      </c>
+      <c r="E7" s="24">
+        <v>3</v>
+      </c>
+      <c r="F7" s="24">
+        <v>3</v>
+      </c>
+      <c r="G7" s="24">
+        <v>3</v>
+      </c>
+      <c r="H7" s="24">
+        <v>3</v>
+      </c>
+      <c r="I7" s="24">
+        <v>3</v>
+      </c>
+      <c r="J7" s="24">
+        <v>3</v>
+      </c>
+      <c r="K7" s="24">
+        <v>3</v>
+      </c>
+      <c r="L7" s="24">
+        <v>3</v>
+      </c>
+      <c r="M7" s="22">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="20">
-        <v>4</v>
-      </c>
-      <c r="C8" s="20">
-        <v>3</v>
-      </c>
-      <c r="D8" s="20">
-        <v>4</v>
-      </c>
-      <c r="E8" s="20">
-        <v>4</v>
-      </c>
-      <c r="F8" s="20">
-        <v>4</v>
-      </c>
-      <c r="G8" s="20">
-        <v>4</v>
-      </c>
-      <c r="H8" s="20">
-        <v>4</v>
-      </c>
-      <c r="I8" s="20">
-        <v>4</v>
-      </c>
-      <c r="J8" s="20">
-        <v>4</v>
-      </c>
-      <c r="K8" s="20">
-        <v>4</v>
-      </c>
-      <c r="L8" s="20">
-        <v>4</v>
-      </c>
-      <c r="M8" s="21">
+      <c r="B8" s="24">
+        <v>4</v>
+      </c>
+      <c r="C8" s="24">
+        <v>3</v>
+      </c>
+      <c r="D8" s="24">
+        <v>4</v>
+      </c>
+      <c r="E8" s="24">
+        <v>4</v>
+      </c>
+      <c r="F8" s="24">
+        <v>4</v>
+      </c>
+      <c r="G8" s="24">
+        <v>4</v>
+      </c>
+      <c r="H8" s="24">
+        <v>4</v>
+      </c>
+      <c r="I8" s="24">
+        <v>4</v>
+      </c>
+      <c r="J8" s="24">
+        <v>4</v>
+      </c>
+      <c r="K8" s="24">
+        <v>4</v>
+      </c>
+      <c r="L8" s="24">
+        <v>4</v>
+      </c>
+      <c r="M8" s="22">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="20">
-        <v>4</v>
-      </c>
-      <c r="C9" s="20">
-        <v>4</v>
-      </c>
-      <c r="D9" s="20">
-        <v>3</v>
-      </c>
-      <c r="E9" s="20">
-        <v>3</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="B9" s="24">
+        <v>4</v>
+      </c>
+      <c r="C9" s="24">
+        <v>4</v>
+      </c>
+      <c r="D9" s="24">
+        <v>3</v>
+      </c>
+      <c r="E9" s="24">
+        <v>3</v>
+      </c>
+      <c r="F9" s="24">
         <v>2</v>
       </c>
-      <c r="G9" s="20">
-        <v>4</v>
-      </c>
-      <c r="H9" s="20">
-        <v>4</v>
-      </c>
-      <c r="I9" s="20">
-        <v>4</v>
-      </c>
-      <c r="J9" s="20">
-        <v>3</v>
-      </c>
-      <c r="K9" s="20">
-        <v>3</v>
-      </c>
-      <c r="L9" s="20">
-        <v>3</v>
-      </c>
-      <c r="M9" s="21">
+      <c r="G9" s="24">
+        <v>4</v>
+      </c>
+      <c r="H9" s="24">
+        <v>4</v>
+      </c>
+      <c r="I9" s="24">
+        <v>4</v>
+      </c>
+      <c r="J9" s="24">
+        <v>3</v>
+      </c>
+      <c r="K9" s="24">
+        <v>3</v>
+      </c>
+      <c r="L9" s="24">
+        <v>3</v>
+      </c>
+      <c r="M9" s="22">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="20">
-        <v>4</v>
-      </c>
-      <c r="C10" s="20">
-        <v>4</v>
-      </c>
-      <c r="D10" s="20">
-        <v>4</v>
-      </c>
-      <c r="E10" s="20">
-        <v>4</v>
-      </c>
-      <c r="F10" s="20">
-        <v>4</v>
-      </c>
-      <c r="G10" s="20">
-        <v>4</v>
-      </c>
-      <c r="H10" s="20">
-        <v>4</v>
-      </c>
-      <c r="I10" s="20">
-        <v>4</v>
-      </c>
-      <c r="J10" s="20">
-        <v>4</v>
-      </c>
-      <c r="K10" s="20">
-        <v>4</v>
-      </c>
-      <c r="L10" s="20">
-        <v>4</v>
-      </c>
-      <c r="M10" s="21">
+      <c r="B10" s="24">
+        <v>4</v>
+      </c>
+      <c r="C10" s="24">
+        <v>4</v>
+      </c>
+      <c r="D10" s="24">
+        <v>4</v>
+      </c>
+      <c r="E10" s="24">
+        <v>4</v>
+      </c>
+      <c r="F10" s="24">
+        <v>4</v>
+      </c>
+      <c r="G10" s="24">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24">
+        <v>4</v>
+      </c>
+      <c r="I10" s="24">
+        <v>4</v>
+      </c>
+      <c r="J10" s="24">
+        <v>4</v>
+      </c>
+      <c r="K10" s="24">
+        <v>4</v>
+      </c>
+      <c r="L10" s="24">
+        <v>4</v>
+      </c>
+      <c r="M10" s="22">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="20">
-        <v>4</v>
-      </c>
-      <c r="C11" s="20">
-        <v>4</v>
-      </c>
-      <c r="D11" s="20">
-        <v>4</v>
-      </c>
-      <c r="E11" s="20">
-        <v>3</v>
-      </c>
-      <c r="F11" s="20">
-        <v>4</v>
-      </c>
-      <c r="G11" s="20">
-        <v>3</v>
-      </c>
-      <c r="H11" s="20">
-        <v>4</v>
-      </c>
-      <c r="I11" s="20">
-        <v>3</v>
-      </c>
-      <c r="J11" s="20">
-        <v>4</v>
-      </c>
-      <c r="K11" s="20">
-        <v>3</v>
-      </c>
-      <c r="L11" s="20">
-        <v>4</v>
-      </c>
-      <c r="M11" s="21">
+      <c r="B11" s="24">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24">
+        <v>4</v>
+      </c>
+      <c r="D11" s="24">
+        <v>4</v>
+      </c>
+      <c r="E11" s="24">
+        <v>3</v>
+      </c>
+      <c r="F11" s="24">
+        <v>4</v>
+      </c>
+      <c r="G11" s="24">
+        <v>3</v>
+      </c>
+      <c r="H11" s="24">
+        <v>4</v>
+      </c>
+      <c r="I11" s="24">
+        <v>3</v>
+      </c>
+      <c r="J11" s="24">
+        <v>4</v>
+      </c>
+      <c r="K11" s="24">
+        <v>3</v>
+      </c>
+      <c r="L11" s="24">
+        <v>4</v>
+      </c>
+      <c r="M11" s="22">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="20">
-        <v>4</v>
-      </c>
-      <c r="C12" s="20">
-        <v>4</v>
-      </c>
-      <c r="D12" s="20">
-        <v>4</v>
-      </c>
-      <c r="E12" s="20">
-        <v>3</v>
-      </c>
-      <c r="F12" s="20">
-        <v>4</v>
-      </c>
-      <c r="G12" s="20">
-        <v>4</v>
-      </c>
-      <c r="H12" s="20">
-        <v>4</v>
-      </c>
-      <c r="I12" s="20">
-        <v>4</v>
-      </c>
-      <c r="J12" s="20">
-        <v>4</v>
-      </c>
-      <c r="K12" s="20">
-        <v>3</v>
-      </c>
-      <c r="L12" s="20">
-        <v>4</v>
-      </c>
-      <c r="M12" s="21">
+      <c r="B12" s="24">
+        <v>4</v>
+      </c>
+      <c r="C12" s="24">
+        <v>4</v>
+      </c>
+      <c r="D12" s="24">
+        <v>4</v>
+      </c>
+      <c r="E12" s="24">
+        <v>3</v>
+      </c>
+      <c r="F12" s="24">
+        <v>4</v>
+      </c>
+      <c r="G12" s="24">
+        <v>4</v>
+      </c>
+      <c r="H12" s="24">
+        <v>4</v>
+      </c>
+      <c r="I12" s="24">
+        <v>4</v>
+      </c>
+      <c r="J12" s="24">
+        <v>4</v>
+      </c>
+      <c r="K12" s="24">
+        <v>3</v>
+      </c>
+      <c r="L12" s="24">
+        <v>4</v>
+      </c>
+      <c r="M12" s="22">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="20">
-        <v>4</v>
-      </c>
-      <c r="C13" s="20">
-        <v>4</v>
-      </c>
-      <c r="D13" s="20">
-        <v>3</v>
-      </c>
-      <c r="E13" s="20">
-        <v>4</v>
-      </c>
-      <c r="F13" s="20">
-        <v>4</v>
-      </c>
-      <c r="G13" s="20">
-        <v>4</v>
-      </c>
-      <c r="H13" s="20">
-        <v>4</v>
-      </c>
-      <c r="I13" s="20">
-        <v>4</v>
-      </c>
-      <c r="J13" s="20">
-        <v>4</v>
-      </c>
-      <c r="K13" s="20">
-        <v>4</v>
-      </c>
-      <c r="L13" s="20">
-        <v>4</v>
-      </c>
-      <c r="M13" s="21">
+      <c r="B13" s="24">
+        <v>4</v>
+      </c>
+      <c r="C13" s="24">
+        <v>4</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3</v>
+      </c>
+      <c r="E13" s="24">
+        <v>4</v>
+      </c>
+      <c r="F13" s="24">
+        <v>4</v>
+      </c>
+      <c r="G13" s="24">
+        <v>4</v>
+      </c>
+      <c r="H13" s="24">
+        <v>4</v>
+      </c>
+      <c r="I13" s="24">
+        <v>4</v>
+      </c>
+      <c r="J13" s="24">
+        <v>4</v>
+      </c>
+      <c r="K13" s="24">
+        <v>4</v>
+      </c>
+      <c r="L13" s="24">
+        <v>4</v>
+      </c>
+      <c r="M13" s="22">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="20">
-        <v>3</v>
-      </c>
-      <c r="C14" s="20">
-        <v>3</v>
-      </c>
-      <c r="D14" s="20">
-        <v>3</v>
-      </c>
-      <c r="E14" s="20">
-        <v>3</v>
-      </c>
-      <c r="F14" s="20">
-        <v>3</v>
-      </c>
-      <c r="G14" s="20">
-        <v>3</v>
-      </c>
-      <c r="H14" s="20">
-        <v>3</v>
-      </c>
-      <c r="I14" s="20">
-        <v>3</v>
-      </c>
-      <c r="J14" s="20">
-        <v>3</v>
-      </c>
-      <c r="K14" s="20">
-        <v>3</v>
-      </c>
-      <c r="L14" s="20">
-        <v>3</v>
-      </c>
-      <c r="M14" s="21">
+      <c r="B14" s="24">
+        <v>3</v>
+      </c>
+      <c r="C14" s="24">
+        <v>3</v>
+      </c>
+      <c r="D14" s="24">
+        <v>3</v>
+      </c>
+      <c r="E14" s="24">
+        <v>3</v>
+      </c>
+      <c r="F14" s="24">
+        <v>3</v>
+      </c>
+      <c r="G14" s="24">
+        <v>3</v>
+      </c>
+      <c r="H14" s="24">
+        <v>3</v>
+      </c>
+      <c r="I14" s="24">
+        <v>3</v>
+      </c>
+      <c r="J14" s="24">
+        <v>3</v>
+      </c>
+      <c r="K14" s="24">
+        <v>3</v>
+      </c>
+      <c r="L14" s="24">
+        <v>3</v>
+      </c>
+      <c r="M14" s="22">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="20">
-        <v>4</v>
-      </c>
-      <c r="C15" s="20">
-        <v>4</v>
-      </c>
-      <c r="D15" s="20">
-        <v>4</v>
-      </c>
-      <c r="E15" s="20">
-        <v>3</v>
-      </c>
-      <c r="F15" s="20">
-        <v>4</v>
-      </c>
-      <c r="G15" s="20">
-        <v>3</v>
-      </c>
-      <c r="H15" s="20">
-        <v>4</v>
-      </c>
-      <c r="I15" s="20">
-        <v>3</v>
-      </c>
-      <c r="J15" s="20">
-        <v>4</v>
-      </c>
-      <c r="K15" s="20">
-        <v>4</v>
-      </c>
-      <c r="L15" s="20">
-        <v>4</v>
-      </c>
-      <c r="M15" s="21">
+      <c r="B15" s="24">
+        <v>4</v>
+      </c>
+      <c r="C15" s="24">
+        <v>4</v>
+      </c>
+      <c r="D15" s="24">
+        <v>4</v>
+      </c>
+      <c r="E15" s="24">
+        <v>3</v>
+      </c>
+      <c r="F15" s="24">
+        <v>4</v>
+      </c>
+      <c r="G15" s="24">
+        <v>3</v>
+      </c>
+      <c r="H15" s="24">
+        <v>4</v>
+      </c>
+      <c r="I15" s="24">
+        <v>3</v>
+      </c>
+      <c r="J15" s="24">
+        <v>4</v>
+      </c>
+      <c r="K15" s="24">
+        <v>4</v>
+      </c>
+      <c r="L15" s="24">
+        <v>4</v>
+      </c>
+      <c r="M15" s="22">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="20">
-        <v>4</v>
-      </c>
-      <c r="C16" s="20">
-        <v>4</v>
-      </c>
-      <c r="D16" s="20">
-        <v>3</v>
-      </c>
-      <c r="E16" s="20">
-        <v>4</v>
-      </c>
-      <c r="F16" s="20">
-        <v>4</v>
-      </c>
-      <c r="G16" s="20">
-        <v>4</v>
-      </c>
-      <c r="H16" s="20">
-        <v>4</v>
-      </c>
-      <c r="I16" s="20">
-        <v>4</v>
-      </c>
-      <c r="J16" s="20">
-        <v>4</v>
-      </c>
-      <c r="K16" s="20">
-        <v>3</v>
-      </c>
-      <c r="L16" s="20">
-        <v>4</v>
-      </c>
-      <c r="M16" s="21">
+      <c r="B16" s="24">
+        <v>4</v>
+      </c>
+      <c r="C16" s="24">
+        <v>4</v>
+      </c>
+      <c r="D16" s="24">
+        <v>3</v>
+      </c>
+      <c r="E16" s="24">
+        <v>4</v>
+      </c>
+      <c r="F16" s="24">
+        <v>4</v>
+      </c>
+      <c r="G16" s="24">
+        <v>4</v>
+      </c>
+      <c r="H16" s="24">
+        <v>4</v>
+      </c>
+      <c r="I16" s="24">
+        <v>4</v>
+      </c>
+      <c r="J16" s="24">
+        <v>4</v>
+      </c>
+      <c r="K16" s="24">
+        <v>3</v>
+      </c>
+      <c r="L16" s="24">
+        <v>4</v>
+      </c>
+      <c r="M16" s="22">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="20">
-        <v>3</v>
-      </c>
-      <c r="C17" s="20">
-        <v>3</v>
-      </c>
-      <c r="D17" s="20">
-        <v>3</v>
-      </c>
-      <c r="E17" s="20">
-        <v>3</v>
-      </c>
-      <c r="F17" s="20">
-        <v>4</v>
-      </c>
-      <c r="G17" s="20">
-        <v>3</v>
-      </c>
-      <c r="H17" s="20">
-        <v>3</v>
-      </c>
-      <c r="I17" s="20">
-        <v>3</v>
-      </c>
-      <c r="J17" s="20">
-        <v>3</v>
-      </c>
-      <c r="K17" s="20">
-        <v>3</v>
-      </c>
-      <c r="L17" s="20">
-        <v>3</v>
-      </c>
-      <c r="M17" s="21">
+      <c r="B17" s="24">
+        <v>3</v>
+      </c>
+      <c r="C17" s="24">
+        <v>3</v>
+      </c>
+      <c r="D17" s="24">
+        <v>3</v>
+      </c>
+      <c r="E17" s="24">
+        <v>3</v>
+      </c>
+      <c r="F17" s="24">
+        <v>4</v>
+      </c>
+      <c r="G17" s="24">
+        <v>3</v>
+      </c>
+      <c r="H17" s="24">
+        <v>3</v>
+      </c>
+      <c r="I17" s="24">
+        <v>3</v>
+      </c>
+      <c r="J17" s="24">
+        <v>3</v>
+      </c>
+      <c r="K17" s="24">
+        <v>3</v>
+      </c>
+      <c r="L17" s="24">
+        <v>3</v>
+      </c>
+      <c r="M17" s="22">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="20">
-        <v>4</v>
-      </c>
-      <c r="C18" s="20">
-        <v>4</v>
-      </c>
-      <c r="D18" s="20">
-        <v>3</v>
-      </c>
-      <c r="E18" s="20">
-        <v>3</v>
-      </c>
-      <c r="F18" s="20">
+      <c r="B18" s="24">
+        <v>4</v>
+      </c>
+      <c r="C18" s="24">
+        <v>4</v>
+      </c>
+      <c r="D18" s="24">
+        <v>3</v>
+      </c>
+      <c r="E18" s="24">
+        <v>3</v>
+      </c>
+      <c r="F18" s="24">
         <v>2</v>
       </c>
-      <c r="G18" s="20">
-        <v>4</v>
-      </c>
-      <c r="H18" s="20">
-        <v>4</v>
-      </c>
-      <c r="I18" s="20">
-        <v>4</v>
-      </c>
-      <c r="J18" s="20">
-        <v>3</v>
-      </c>
-      <c r="K18" s="20">
-        <v>3</v>
-      </c>
-      <c r="L18" s="20">
-        <v>3</v>
-      </c>
-      <c r="M18" s="21">
+      <c r="G18" s="24">
+        <v>4</v>
+      </c>
+      <c r="H18" s="24">
+        <v>4</v>
+      </c>
+      <c r="I18" s="24">
+        <v>4</v>
+      </c>
+      <c r="J18" s="24">
+        <v>3</v>
+      </c>
+      <c r="K18" s="24">
+        <v>3</v>
+      </c>
+      <c r="L18" s="24">
+        <v>3</v>
+      </c>
+      <c r="M18" s="22">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="20">
-        <v>4</v>
-      </c>
-      <c r="C19" s="20">
-        <v>4</v>
-      </c>
-      <c r="D19" s="20">
-        <v>4</v>
-      </c>
-      <c r="E19" s="20">
-        <v>4</v>
-      </c>
-      <c r="F19" s="20">
-        <v>4</v>
-      </c>
-      <c r="G19" s="20">
-        <v>4</v>
-      </c>
-      <c r="H19" s="20">
-        <v>4</v>
-      </c>
-      <c r="I19" s="20">
-        <v>4</v>
-      </c>
-      <c r="J19" s="20">
-        <v>4</v>
-      </c>
-      <c r="K19" s="20">
-        <v>3</v>
-      </c>
-      <c r="L19" s="20">
-        <v>4</v>
-      </c>
-      <c r="M19" s="21">
+      <c r="B19" s="24">
+        <v>4</v>
+      </c>
+      <c r="C19" s="24">
+        <v>4</v>
+      </c>
+      <c r="D19" s="24">
+        <v>4</v>
+      </c>
+      <c r="E19" s="24">
+        <v>4</v>
+      </c>
+      <c r="F19" s="24">
+        <v>4</v>
+      </c>
+      <c r="G19" s="24">
+        <v>4</v>
+      </c>
+      <c r="H19" s="24">
+        <v>4</v>
+      </c>
+      <c r="I19" s="24">
+        <v>4</v>
+      </c>
+      <c r="J19" s="24">
+        <v>4</v>
+      </c>
+      <c r="K19" s="24">
+        <v>3</v>
+      </c>
+      <c r="L19" s="24">
+        <v>4</v>
+      </c>
+      <c r="M19" s="22">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="20">
-        <v>4</v>
-      </c>
-      <c r="C20" s="20">
-        <v>4</v>
-      </c>
-      <c r="D20" s="20">
-        <v>3</v>
-      </c>
-      <c r="E20" s="20">
-        <v>4</v>
-      </c>
-      <c r="F20" s="20">
-        <v>3</v>
-      </c>
-      <c r="G20" s="20">
-        <v>3</v>
-      </c>
-      <c r="H20" s="20">
-        <v>3</v>
-      </c>
-      <c r="I20" s="20">
-        <v>3</v>
-      </c>
-      <c r="J20" s="20">
-        <v>4</v>
-      </c>
-      <c r="K20" s="20">
-        <v>4</v>
-      </c>
-      <c r="L20" s="20">
-        <v>4</v>
-      </c>
-      <c r="M20" s="21">
+      <c r="B20" s="24">
+        <v>4</v>
+      </c>
+      <c r="C20" s="24">
+        <v>4</v>
+      </c>
+      <c r="D20" s="24">
+        <v>3</v>
+      </c>
+      <c r="E20" s="24">
+        <v>4</v>
+      </c>
+      <c r="F20" s="24">
+        <v>3</v>
+      </c>
+      <c r="G20" s="24">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24">
+        <v>3</v>
+      </c>
+      <c r="I20" s="24">
+        <v>3</v>
+      </c>
+      <c r="J20" s="24">
+        <v>4</v>
+      </c>
+      <c r="K20" s="24">
+        <v>4</v>
+      </c>
+      <c r="L20" s="24">
+        <v>4</v>
+      </c>
+      <c r="M20" s="22">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="20">
-        <v>4</v>
-      </c>
-      <c r="C21" s="20">
-        <v>4</v>
-      </c>
-      <c r="D21" s="20">
-        <v>3</v>
-      </c>
-      <c r="E21" s="20">
-        <v>3</v>
-      </c>
-      <c r="F21" s="20">
-        <v>4</v>
-      </c>
-      <c r="G21" s="20">
-        <v>4</v>
-      </c>
-      <c r="H21" s="20">
-        <v>4</v>
-      </c>
-      <c r="I21" s="20">
-        <v>4</v>
-      </c>
-      <c r="J21" s="20">
-        <v>3</v>
-      </c>
-      <c r="K21" s="20">
-        <v>3</v>
-      </c>
-      <c r="L21" s="20">
-        <v>3</v>
-      </c>
-      <c r="M21" s="21">
+      <c r="B21" s="24">
+        <v>4</v>
+      </c>
+      <c r="C21" s="24">
+        <v>4</v>
+      </c>
+      <c r="D21" s="24">
+        <v>3</v>
+      </c>
+      <c r="E21" s="24">
+        <v>3</v>
+      </c>
+      <c r="F21" s="24">
+        <v>4</v>
+      </c>
+      <c r="G21" s="24">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24">
+        <v>4</v>
+      </c>
+      <c r="I21" s="24">
+        <v>4</v>
+      </c>
+      <c r="J21" s="24">
+        <v>3</v>
+      </c>
+      <c r="K21" s="24">
+        <v>3</v>
+      </c>
+      <c r="L21" s="24">
+        <v>3</v>
+      </c>
+      <c r="M21" s="22">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="22" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="24">
+        <v>4</v>
+      </c>
+      <c r="C22" s="24">
+        <v>3</v>
+      </c>
+      <c r="D22" s="24">
+        <v>4</v>
+      </c>
+      <c r="E22" s="24">
+        <v>3</v>
+      </c>
+      <c r="F22" s="24">
+        <v>4</v>
+      </c>
+      <c r="G22" s="24">
+        <v>4</v>
+      </c>
+      <c r="H22" s="24">
+        <v>4</v>
+      </c>
+      <c r="I22" s="24">
+        <v>4</v>
+      </c>
+      <c r="J22" s="24">
+        <v>3</v>
+      </c>
+      <c r="K22" s="24">
+        <v>4</v>
+      </c>
+      <c r="L22" s="24">
+        <v>3</v>
+      </c>
+      <c r="M22" s="22">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="24">
+        <v>4</v>
+      </c>
+      <c r="C23" s="24">
+        <v>4</v>
+      </c>
+      <c r="D23" s="24">
+        <v>4</v>
+      </c>
+      <c r="E23" s="24">
+        <v>4</v>
+      </c>
+      <c r="F23" s="24">
+        <v>4</v>
+      </c>
+      <c r="G23" s="24">
+        <v>4</v>
+      </c>
+      <c r="H23" s="24">
+        <v>4</v>
+      </c>
+      <c r="I23" s="24">
+        <v>4</v>
+      </c>
+      <c r="J23" s="24">
+        <v>4</v>
+      </c>
+      <c r="K23" s="24">
+        <v>4</v>
+      </c>
+      <c r="L23" s="24">
+        <v>4</v>
+      </c>
+      <c r="M23" s="22">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="24">
+        <v>4</v>
+      </c>
+      <c r="C24" s="24">
+        <v>4</v>
+      </c>
+      <c r="D24" s="24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="24">
+        <v>4</v>
+      </c>
+      <c r="G24" s="24">
+        <v>4</v>
+      </c>
+      <c r="H24" s="24">
+        <v>4</v>
+      </c>
+      <c r="I24" s="24">
+        <v>4</v>
+      </c>
+      <c r="J24" s="24">
+        <v>4</v>
+      </c>
+      <c r="K24" s="24">
+        <v>3</v>
+      </c>
+      <c r="L24" s="24">
+        <v>3</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="24">
+        <v>4</v>
+      </c>
+      <c r="C25" s="24">
+        <v>3</v>
+      </c>
+      <c r="D25" s="24">
+        <v>4</v>
+      </c>
+      <c r="E25" s="24">
+        <v>4</v>
+      </c>
+      <c r="F25" s="24">
+        <v>4</v>
+      </c>
+      <c r="G25" s="24">
+        <v>4</v>
+      </c>
+      <c r="H25" s="24">
+        <v>4</v>
+      </c>
+      <c r="I25" s="24">
+        <v>4</v>
+      </c>
+      <c r="J25" s="24">
+        <v>4</v>
+      </c>
+      <c r="K25" s="24">
+        <v>3</v>
+      </c>
+      <c r="L25" s="24">
+        <v>4</v>
+      </c>
+      <c r="M25" s="22">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="24">
+        <v>4</v>
+      </c>
+      <c r="C26" s="24">
+        <v>4</v>
+      </c>
+      <c r="D26" s="24">
+        <v>3</v>
+      </c>
+      <c r="E26" s="24">
+        <v>3</v>
+      </c>
+      <c r="F26" s="24">
+        <v>4</v>
+      </c>
+      <c r="G26" s="24">
+        <v>3</v>
+      </c>
+      <c r="H26" s="24">
+        <v>3</v>
+      </c>
+      <c r="I26" s="24">
+        <v>4</v>
+      </c>
+      <c r="J26" s="24">
+        <v>4</v>
+      </c>
+      <c r="K26" s="24">
+        <v>3</v>
+      </c>
+      <c r="L26" s="24">
+        <v>4</v>
+      </c>
+      <c r="M26" s="22">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="24">
+        <v>4</v>
+      </c>
+      <c r="C27" s="24">
+        <v>4</v>
+      </c>
+      <c r="D27" s="24">
+        <v>4</v>
+      </c>
+      <c r="E27" s="24">
+        <v>3</v>
+      </c>
+      <c r="F27" s="24">
+        <v>3</v>
+      </c>
+      <c r="G27" s="24">
+        <v>3</v>
+      </c>
+      <c r="H27" s="24">
+        <v>4</v>
+      </c>
+      <c r="I27" s="24">
+        <v>3</v>
+      </c>
+      <c r="J27" s="24">
+        <v>4</v>
+      </c>
+      <c r="K27" s="24">
+        <v>4</v>
+      </c>
+      <c r="L27" s="24">
+        <v>4</v>
+      </c>
+      <c r="M27" s="22">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="24">
+        <v>3</v>
+      </c>
+      <c r="C28" s="24">
+        <v>4</v>
+      </c>
+      <c r="D28" s="24">
+        <v>3</v>
+      </c>
+      <c r="E28" s="24">
+        <v>4</v>
+      </c>
+      <c r="F28" s="24">
+        <v>4</v>
+      </c>
+      <c r="G28" s="24">
+        <v>3</v>
+      </c>
+      <c r="H28" s="24">
+        <v>4</v>
+      </c>
+      <c r="I28" s="24">
+        <v>3</v>
+      </c>
+      <c r="J28" s="24">
+        <v>3</v>
+      </c>
+      <c r="K28" s="24">
+        <v>4</v>
+      </c>
+      <c r="L28" s="24">
+        <v>4</v>
+      </c>
+      <c r="M28" s="22">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="24">
+        <v>4</v>
+      </c>
+      <c r="C29" s="24">
+        <v>4</v>
+      </c>
+      <c r="D29" s="24">
+        <v>4</v>
+      </c>
+      <c r="E29" s="24">
+        <v>3</v>
+      </c>
+      <c r="F29" s="24">
+        <v>4</v>
+      </c>
+      <c r="G29" s="24">
+        <v>4</v>
+      </c>
+      <c r="H29" s="24">
+        <v>3</v>
+      </c>
+      <c r="I29" s="24">
+        <v>4</v>
+      </c>
+      <c r="J29" s="24">
+        <v>4</v>
+      </c>
+      <c r="K29" s="24">
+        <v>3</v>
+      </c>
+      <c r="L29" s="24">
+        <v>4</v>
+      </c>
+      <c r="M29" s="22">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="24">
+        <v>4</v>
+      </c>
+      <c r="C30" s="24">
+        <v>3</v>
+      </c>
+      <c r="D30" s="24">
+        <v>4</v>
+      </c>
+      <c r="E30" s="24">
+        <v>4</v>
+      </c>
+      <c r="F30" s="24">
+        <v>4</v>
+      </c>
+      <c r="G30" s="24">
+        <v>3</v>
+      </c>
+      <c r="H30" s="24">
+        <v>3</v>
+      </c>
+      <c r="I30" s="24">
+        <v>4</v>
+      </c>
+      <c r="J30" s="24">
+        <v>4</v>
+      </c>
+      <c r="K30" s="24">
+        <v>3</v>
+      </c>
+      <c r="L30" s="24">
+        <v>4</v>
+      </c>
+      <c r="M30" s="22">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="24">
+        <v>3</v>
+      </c>
+      <c r="C31" s="24">
+        <v>4</v>
+      </c>
+      <c r="D31" s="24">
+        <v>4</v>
+      </c>
+      <c r="E31" s="24">
+        <v>4</v>
+      </c>
+      <c r="F31" s="24">
+        <v>4</v>
+      </c>
+      <c r="G31" s="24">
+        <v>4</v>
+      </c>
+      <c r="H31" s="24">
+        <v>4</v>
+      </c>
+      <c r="I31" s="24">
+        <v>3</v>
+      </c>
+      <c r="J31" s="24">
+        <v>4</v>
+      </c>
+      <c r="K31" s="24">
+        <v>3</v>
+      </c>
+      <c r="L31" s="24">
+        <v>4</v>
+      </c>
+      <c r="M31" s="22">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="12">
-        <f>CORREL(B2:B21,$M$2:$M$21)</f>
-        <v>0.82640638638987718</v>
-      </c>
-      <c r="C24" s="12">
-        <f t="shared" ref="C24:L24" si="1">CORREL(C2:C21,$M$2:$M$21)</f>
-        <v>0.64432393199547877</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="B34" s="12">
+        <f>CORREL(B2:B31,$M$2:$M$31)</f>
+        <v>0.67311824069731852</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" ref="C34:L34" si="1">CORREL(C2:C31,$M$2:$M$31)</f>
+        <v>0.47628436025345156</v>
+      </c>
+      <c r="D34" s="12">
         <f t="shared" si="1"/>
-        <v>0.61131920365882231</v>
-      </c>
-      <c r="E24" s="12">
+        <v>0.61368572883233907</v>
+      </c>
+      <c r="E34" s="12">
         <f t="shared" si="1"/>
-        <v>0.56365155321390825</v>
-      </c>
-      <c r="F24" s="12">
+        <v>0.49617144033252941</v>
+      </c>
+      <c r="F34" s="12">
         <f t="shared" si="1"/>
-        <v>0.48886874712949885</v>
-      </c>
-      <c r="G24" s="12">
+        <v>0.4915975386719188</v>
+      </c>
+      <c r="G34" s="12">
         <f t="shared" si="1"/>
-        <v>0.65745650204816719</v>
-      </c>
-      <c r="H24" s="12">
+        <v>0.61165021297051314</v>
+      </c>
+      <c r="H34" s="12">
         <f t="shared" si="1"/>
-        <v>0.77375215704278422</v>
-      </c>
-      <c r="I24" s="12">
+        <v>0.64440503746932642</v>
+      </c>
+      <c r="I34" s="12">
         <f t="shared" si="1"/>
-        <v>0.62896130497169089</v>
-      </c>
-      <c r="J24" s="12">
+        <v>0.56732773376975132</v>
+      </c>
+      <c r="J34" s="12">
         <f t="shared" si="1"/>
-        <v>0.84261535469247029</v>
-      </c>
-      <c r="K24" s="12">
+        <v>0.76286184582765859</v>
+      </c>
+      <c r="K34" s="12">
         <f t="shared" si="1"/>
-        <v>0.52097256788936452</v>
-      </c>
-      <c r="L24" s="12">
+        <v>0.41455144382292503</v>
+      </c>
+      <c r="L34" s="12">
         <f t="shared" si="1"/>
-        <v>0.80163555951487064</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+        <v>0.69091907303820832</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="12">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="C25" s="12">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="J25" s="12">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="K25" s="12">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="L25" s="12">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="B35" s="23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="C35" s="23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="D35" s="23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="E35" s="23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="G35" s="23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H35" s="23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="I35" s="23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="J35" s="23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="K35" s="23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="L35" s="23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="13" t="str">
-        <f>IF(B24&gt;B25,"Valid","Tidak Valid")</f>
-        <v>Valid</v>
-      </c>
-      <c r="C26" s="13" t="str">
-        <f t="shared" ref="C26:L26" si="2">IF(C24&gt;C25,"Valid","Tidak Valid")</f>
-        <v>Valid</v>
-      </c>
-      <c r="D26" s="13" t="str">
+      <c r="B36" s="13" t="str">
+        <f>IF(B34&gt;B35,"V","TV")</f>
+        <v>V</v>
+      </c>
+      <c r="C36" s="13" t="str">
+        <f t="shared" ref="C36:L36" si="2">IF(C34&gt;C35,"V","TV")</f>
+        <v>V</v>
+      </c>
+      <c r="D36" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-      <c r="E26" s="13" t="str">
+        <v>V</v>
+      </c>
+      <c r="E36" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-      <c r="F26" s="13" t="str">
+        <v>V</v>
+      </c>
+      <c r="F36" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-      <c r="G26" s="13" t="str">
+        <v>V</v>
+      </c>
+      <c r="G36" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-      <c r="H26" s="13" t="str">
+        <v>V</v>
+      </c>
+      <c r="H36" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-      <c r="I26" s="13" t="str">
+        <v>V</v>
+      </c>
+      <c r="I36" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-      <c r="J26" s="13" t="str">
+        <v>V</v>
+      </c>
+      <c r="J36" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-      <c r="K26" s="13" t="str">
+        <v>V</v>
+      </c>
+      <c r="K36" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-      <c r="L26" s="13" t="str">
+        <v>V</v>
+      </c>
+      <c r="L36" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-      <c r="M26" s="22">
-        <f>VAR(M2:M21)</f>
-        <v>13.186842105263157</v>
-      </c>
-      <c r="N26" s="23" t="s">
+        <v>V</v>
+      </c>
+      <c r="M36" s="18">
+        <f>VAR(M2:M31)</f>
+        <v>9.7517241379310313</v>
+      </c>
+      <c r="N36" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="11">
-        <f t="shared" ref="B27:L27" si="3">VAR(B2:B22)</f>
-        <v>0.16842105263157836</v>
-      </c>
-      <c r="C27" s="11">
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="11">
+        <f>VAR(B2:B31)</f>
+        <v>0.16551724137931073</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" ref="C37:L37" si="3">VAR(C2:C31)</f>
+        <v>0.20229885057471292</v>
+      </c>
+      <c r="D37" s="11">
         <f t="shared" si="3"/>
-        <v>0.19736842105263158</v>
-      </c>
-      <c r="D27" s="11">
+        <v>0.2574712643678152</v>
+      </c>
+      <c r="E37" s="11">
         <f t="shared" si="3"/>
-        <v>0.25263157894736904</v>
-      </c>
-      <c r="E27" s="11">
+        <v>0.2574712643678152</v>
+      </c>
+      <c r="F37" s="11">
         <f t="shared" si="3"/>
-        <v>0.26052631578947311</v>
-      </c>
-      <c r="F27" s="11">
+        <v>0.36781609195402365</v>
+      </c>
+      <c r="G37" s="11">
         <f t="shared" si="3"/>
-        <v>0.47105263157894678</v>
-      </c>
-      <c r="G27" s="11">
+        <v>0.24827586206896513</v>
+      </c>
+      <c r="H37" s="11">
         <f t="shared" si="3"/>
-        <v>0.25263157894736904</v>
-      </c>
-      <c r="H27" s="11">
+        <v>0.21724137931034521</v>
+      </c>
+      <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>0.22105263157894678</v>
-      </c>
-      <c r="I27" s="11">
+        <v>0.24827586206896513</v>
+      </c>
+      <c r="J37" s="11">
         <f t="shared" si="3"/>
-        <v>0.26052631578947311</v>
-      </c>
-      <c r="J27" s="11">
+        <v>0.21724137931034521</v>
+      </c>
+      <c r="K37" s="11">
         <f t="shared" si="3"/>
-        <v>0.23947368421052692</v>
-      </c>
-      <c r="K27" s="11">
+        <v>0.22988505747126503</v>
+      </c>
+      <c r="L37" s="11">
         <f t="shared" si="3"/>
-        <v>0.22105263157894678</v>
-      </c>
-      <c r="L27" s="11">
-        <f t="shared" si="3"/>
-        <v>0.25263157894736904</v>
-      </c>
-      <c r="M27" s="22">
-        <f>SUM(B27:L27)</f>
-        <v>2.7973684210526302</v>
-      </c>
-      <c r="N27" s="23" t="s">
+        <v>0.22988505747126503</v>
+      </c>
+      <c r="M37" s="18">
+        <f>SUM(B37:L37)</f>
+        <v>2.6413793103448282</v>
+      </c>
+      <c r="N37" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8">
-        <f>11/10*(1-M27/M26)</f>
-        <v>0.8666533626022751</v>
-      </c>
-      <c r="F31" s="7" t="str">
-        <f>IF(AND(E31&gt;0.8,E31&lt;=1), "Reliabilias Sangat Tinggi", IF(AND(E31&gt;0.6,E31&lt;=0.8),"Relibilitas Tinggi",IF(AND(E31&gt;0.4,E31&lt;=0.6),"Relibilitas Sedang",IF(AND(E31&gt;0.2,E31&lt;=0.4),"Relibilitas Rendah",IF(AND(E31&gt;0,E31&lt;=0.2),"Tidak Reliabel","")))))</f>
+      <c r="D41" s="6"/>
+      <c r="E41" s="8">
+        <f>11/10*(1-M37/M36)</f>
+        <v>0.80205091937765205</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f>IF(AND(E41&gt;0.8,E41&lt;=1), "Reliabilias Sangat Tinggi", IF(AND(E41&gt;0.6,E41&lt;=0.8),"Relibilitas Tinggi",IF(AND(E41&gt;0.4,E41&lt;=0.6),"Relibilitas Sedang",IF(AND(E41&gt;0.2,E41&lt;=0.4),"Relibilitas Rendah",IF(AND(E41&gt;0,E41&lt;=0.2),"Tidak Reliabel","")))))</f>
         <v>Reliabilias Sangat Tinggi</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1917,31 +2382,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A1EEE4-30C6-40DA-9435-51B588E7E16D}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="14">
         <v>0.05</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
@@ -1951,7 +2416,7 @@
         <f>TINV(B2,A3)/SQRT(A3+(TINV(B2,A3))^2)</f>
         <v>0.99691733373312796</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="15">
         <f>B3/SQRT(A3+B3^2)</f>
         <v>0.70601437037078685</v>
       </c>
@@ -1964,8 +2429,8 @@
         <f t="shared" ref="B4:B22" si="0">TINV(B$2,A4)</f>
         <v>4.3026527297494637</v>
       </c>
-      <c r="C4" s="27">
-        <f t="shared" ref="C3:C22" si="1">B4/SQRT(A4+B4^2)</f>
+      <c r="C4" s="15">
+        <f t="shared" ref="C4:C22" si="1">B4/SQRT(A4+B4^2)</f>
         <v>0.95</v>
       </c>
     </row>
@@ -1977,7 +2442,7 @@
         <f t="shared" si="0"/>
         <v>3.1824463052837091</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="15">
         <f t="shared" si="1"/>
         <v>0.87833944815980525</v>
       </c>
@@ -1990,7 +2455,7 @@
         <f t="shared" si="0"/>
         <v>2.7764451051977934</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="15">
         <f t="shared" si="1"/>
         <v>0.81140135189950779</v>
       </c>
@@ -2003,7 +2468,7 @@
         <f t="shared" si="0"/>
         <v>2.570581835636315</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="15">
         <f t="shared" si="1"/>
         <v>0.75449223446096447</v>
       </c>
@@ -2016,7 +2481,7 @@
         <f t="shared" si="0"/>
         <v>2.4469118511449697</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="15">
         <f>B8/SQRT(A8+B8^2)</f>
         <v>0.70673440073065374</v>
       </c>
@@ -2029,7 +2494,7 @@
         <f>TINV(B$2,A9)</f>
         <v>2.3646242515927849</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="15">
         <f>B9/SQRT(A9+B9^2)</f>
         <v>0.66638360533630914</v>
       </c>
@@ -2042,7 +2507,7 @@
         <f t="shared" si="0"/>
         <v>2.3060041352041671</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="15">
         <f t="shared" si="1"/>
         <v>0.63189686471983397</v>
       </c>
@@ -2055,7 +2520,7 @@
         <f t="shared" si="0"/>
         <v>2.2621571627982053</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="15">
         <f t="shared" si="1"/>
         <v>0.60206877743700837</v>
       </c>
@@ -2068,7 +2533,7 @@
         <f t="shared" si="0"/>
         <v>2.2281388519862744</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="15">
         <f t="shared" si="1"/>
         <v>0.57598298644226398</v>
       </c>
@@ -2081,7 +2546,7 @@
         <f t="shared" si="0"/>
         <v>2.2009851600916384</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="15">
         <f t="shared" si="1"/>
         <v>0.55294265949458932</v>
       </c>
@@ -2094,7 +2559,7 @@
         <f t="shared" si="0"/>
         <v>2.1788128296672284</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="15">
         <f t="shared" si="1"/>
         <v>0.53241280468130958</v>
       </c>
@@ -2107,7 +2572,7 @@
         <f t="shared" si="0"/>
         <v>2.1603686564627926</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="15">
         <f t="shared" si="1"/>
         <v>0.51397748425605627</v>
       </c>
@@ -2120,7 +2585,7 @@
         <f t="shared" si="0"/>
         <v>2.1447866879178044</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="15">
         <f t="shared" si="1"/>
         <v>0.49730903545939303</v>
       </c>
@@ -2133,7 +2598,7 @@
         <f t="shared" si="0"/>
         <v>2.1314495455597742</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="15">
         <f t="shared" si="1"/>
         <v>0.48214601690033215</v>
       </c>
@@ -2146,7 +2611,7 @@
         <f t="shared" si="0"/>
         <v>2.119905299221255</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="15">
         <f t="shared" si="1"/>
         <v>0.4682773054452069</v>
       </c>
@@ -2159,7 +2624,7 @@
         <f t="shared" si="0"/>
         <v>2.109815577833317</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="15">
         <f t="shared" si="1"/>
         <v>0.45553050576304221</v>
       </c>
@@ -2172,7 +2637,7 @@
         <f t="shared" si="0"/>
         <v>2.1009220402410378</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="15">
         <f t="shared" si="1"/>
         <v>0.4437633993377868</v>
       </c>
@@ -2185,22 +2650,152 @@
         <f t="shared" si="0"/>
         <v>2.0930240544083096</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="15">
         <f t="shared" si="1"/>
         <v>0.43285755631652884</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="15">
         <f t="shared" si="0"/>
         <v>2.0859634472658648</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="15">
         <f t="shared" si="1"/>
         <v>0.4227135041660024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" ref="B23:B28" si="2">TINV(B$2,A23)</f>
+        <v>2.07961384472768</v>
+      </c>
+      <c r="C23" s="15">
+        <f t="shared" ref="C23:C28" si="3">B23/SQRT(A23+B23^2)</f>
+        <v>0.41324703053361178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>22</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" si="2"/>
+        <v>2.0738730679040258</v>
+      </c>
+      <c r="C24" s="15">
+        <f t="shared" si="3"/>
+        <v>0.40438632243271405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" si="2"/>
+        <v>2.0686576104190491</v>
+      </c>
+      <c r="C25" s="15">
+        <f t="shared" si="3"/>
+        <v>0.39606972934697227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>24</v>
+      </c>
+      <c r="B26" s="15">
+        <f t="shared" si="2"/>
+        <v>2.0638985616280254</v>
+      </c>
+      <c r="C26" s="15">
+        <f t="shared" si="3"/>
+        <v>0.38824399701725298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" si="2"/>
+        <v>2.0595385527532977</v>
+      </c>
+      <c r="C27" s="15">
+        <f t="shared" si="3"/>
+        <v>0.38086286008598491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>26</v>
+      </c>
+      <c r="B28" s="15">
+        <f t="shared" si="2"/>
+        <v>2.0555294386428731</v>
+      </c>
+      <c r="C28" s="15">
+        <f t="shared" si="3"/>
+        <v>0.37388591108593572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" ref="B29:B32" si="4">TINV(B$2,A29)</f>
+        <v>2.0518305164802859</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" ref="C29:C32" si="5">B29/SQRT(A29+B29^2)</f>
+        <v>0.3672776842415274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" si="4"/>
+        <v>2.0484071417952445</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="5"/>
+        <v>0.36100690773323302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>29</v>
+      </c>
+      <c r="B31" s="15">
+        <f t="shared" si="4"/>
+        <v>2.0452296421327048</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="5"/>
+        <v>0.35504588917776814</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>30</v>
+      </c>
+      <c r="B32" s="17">
+        <f t="shared" si="4"/>
+        <v>2.0422724563012378</v>
+      </c>
+      <c r="C32" s="17">
+        <f t="shared" si="5"/>
+        <v>0.34937000727708711</v>
       </c>
     </row>
   </sheetData>

--- a/DOKUMENT/PENGUJIAN/Uji valid dan reli.xlsx
+++ b/DOKUMENT/PENGUJIAN/Uji valid dan reli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\PENGUJIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25DFCF-0245-4891-9DC2-CC5CD2113326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF31718-E87E-4EE7-AE6C-F75FF02D12E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="2" r:id="rId1"/>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEF6905-84EA-4998-A96D-B168CF5C9440}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2384,7 +2384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A1EEE4-30C6-40DA-9435-51B588E7E16D}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>

--- a/DOKUMENT/PENGUJIAN/Uji valid dan reli.xlsx
+++ b/DOKUMENT/PENGUJIAN/Uji valid dan reli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\PENGUJIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF31718-E87E-4EE7-AE6C-F75FF02D12E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E277D8B-E122-4524-8174-748E36E1DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>rHitung</t>
   </si>
@@ -233,6 +233,30 @@
   </si>
   <si>
     <t>R30</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Orang Tua</t>
+  </si>
+  <si>
+    <t>Guru</t>
+  </si>
+  <si>
+    <t>Masyarakat Umum</t>
+  </si>
+  <si>
+    <t>Jumlah Masyarakat Umum</t>
+  </si>
+  <si>
+    <t>Jumlah Guru</t>
+  </si>
+  <si>
+    <t>Jumlah Orang Tua</t>
+  </si>
+  <si>
+    <t>Total Responden</t>
   </si>
 </sst>
 </file>
@@ -242,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -276,6 +300,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -324,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -433,11 +464,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,9 +517,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,6 +524,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -492,6 +537,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,1316 +805,1439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEF6905-84EA-4998-A96D-B168CF5C9440}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="24">
-        <v>4</v>
-      </c>
-      <c r="C2" s="24">
-        <v>4</v>
-      </c>
-      <c r="D2" s="24">
-        <v>4</v>
-      </c>
-      <c r="E2" s="24">
-        <v>4</v>
-      </c>
-      <c r="F2" s="24">
-        <v>3</v>
-      </c>
-      <c r="G2" s="24">
-        <v>4</v>
-      </c>
-      <c r="H2" s="24">
-        <v>4</v>
-      </c>
-      <c r="I2" s="24">
-        <v>3</v>
-      </c>
-      <c r="J2" s="24">
-        <v>4</v>
-      </c>
-      <c r="K2" s="24">
-        <v>3</v>
-      </c>
-      <c r="L2" s="24">
-        <v>3</v>
-      </c>
-      <c r="M2" s="22">
-        <f>SUM(B2:L2)</f>
+      <c r="B2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="23">
+        <v>4</v>
+      </c>
+      <c r="D2" s="23">
+        <v>4</v>
+      </c>
+      <c r="E2" s="23">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23">
+        <v>4</v>
+      </c>
+      <c r="G2" s="23">
+        <v>3</v>
+      </c>
+      <c r="H2" s="23">
+        <v>4</v>
+      </c>
+      <c r="I2" s="23">
+        <v>4</v>
+      </c>
+      <c r="J2" s="23">
+        <v>3</v>
+      </c>
+      <c r="K2" s="23">
+        <v>4</v>
+      </c>
+      <c r="L2" s="23">
+        <v>3</v>
+      </c>
+      <c r="M2" s="23">
+        <v>3</v>
+      </c>
+      <c r="N2" s="21">
+        <f>SUM(C2:M2)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="P2" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="30">
+        <f>COUNTIF(B2:B31,"Masyarakat Umum")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="24">
-        <v>4</v>
-      </c>
-      <c r="C3" s="24">
-        <v>4</v>
-      </c>
-      <c r="D3" s="24">
-        <v>3</v>
-      </c>
-      <c r="E3" s="24">
-        <v>4</v>
-      </c>
-      <c r="F3" s="24">
-        <v>3</v>
-      </c>
-      <c r="G3" s="24">
-        <v>3</v>
-      </c>
-      <c r="H3" s="24">
-        <v>3</v>
-      </c>
-      <c r="I3" s="24">
-        <v>3</v>
-      </c>
-      <c r="J3" s="24">
-        <v>4</v>
-      </c>
-      <c r="K3" s="24">
-        <v>3</v>
-      </c>
-      <c r="L3" s="24">
-        <v>4</v>
-      </c>
-      <c r="M3" s="22">
-        <f t="shared" ref="M3:M31" si="0">SUM(B3:L3)</f>
+      <c r="B3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="23">
+        <v>4</v>
+      </c>
+      <c r="D3" s="23">
+        <v>4</v>
+      </c>
+      <c r="E3" s="23">
+        <v>3</v>
+      </c>
+      <c r="F3" s="23">
+        <v>4</v>
+      </c>
+      <c r="G3" s="23">
+        <v>3</v>
+      </c>
+      <c r="H3" s="23">
+        <v>3</v>
+      </c>
+      <c r="I3" s="23">
+        <v>3</v>
+      </c>
+      <c r="J3" s="23">
+        <v>3</v>
+      </c>
+      <c r="K3" s="23">
+        <v>4</v>
+      </c>
+      <c r="L3" s="23">
+        <v>3</v>
+      </c>
+      <c r="M3" s="23">
+        <v>4</v>
+      </c>
+      <c r="N3" s="21">
+        <f t="shared" ref="N3:N31" si="0">SUM(C3:M3)</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="P3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="30">
+        <f>COUNTIF(B2:B31,"Guru")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="24">
-        <v>4</v>
-      </c>
-      <c r="C4" s="24">
-        <v>4</v>
-      </c>
-      <c r="D4" s="24">
-        <v>4</v>
-      </c>
-      <c r="E4" s="24">
-        <v>3</v>
-      </c>
-      <c r="F4" s="24">
-        <v>4</v>
-      </c>
-      <c r="G4" s="24">
-        <v>4</v>
-      </c>
-      <c r="H4" s="24">
-        <v>4</v>
-      </c>
-      <c r="I4" s="24">
-        <v>4</v>
-      </c>
-      <c r="J4" s="24">
-        <v>4</v>
-      </c>
-      <c r="K4" s="24">
-        <v>4</v>
-      </c>
-      <c r="L4" s="24">
-        <v>4</v>
-      </c>
-      <c r="M4" s="22">
+      <c r="B4" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="23">
+        <v>4</v>
+      </c>
+      <c r="D4" s="23">
+        <v>4</v>
+      </c>
+      <c r="E4" s="23">
+        <v>4</v>
+      </c>
+      <c r="F4" s="23">
+        <v>3</v>
+      </c>
+      <c r="G4" s="23">
+        <v>4</v>
+      </c>
+      <c r="H4" s="23">
+        <v>4</v>
+      </c>
+      <c r="I4" s="23">
+        <v>4</v>
+      </c>
+      <c r="J4" s="23">
+        <v>4</v>
+      </c>
+      <c r="K4" s="23">
+        <v>4</v>
+      </c>
+      <c r="L4" s="23">
+        <v>4</v>
+      </c>
+      <c r="M4" s="23">
+        <v>4</v>
+      </c>
+      <c r="N4" s="21">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="P4" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="30">
+        <f>COUNTIF(B2:B31,"Orang Tua")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="24">
-        <v>4</v>
-      </c>
-      <c r="C5" s="24">
-        <v>4</v>
-      </c>
-      <c r="D5" s="24">
-        <v>3</v>
-      </c>
-      <c r="E5" s="24">
-        <v>4</v>
-      </c>
-      <c r="F5" s="24">
-        <v>4</v>
-      </c>
-      <c r="G5" s="24">
-        <v>4</v>
-      </c>
-      <c r="H5" s="24">
-        <v>4</v>
-      </c>
-      <c r="I5" s="24">
-        <v>4</v>
-      </c>
-      <c r="J5" s="24">
-        <v>4</v>
-      </c>
-      <c r="K5" s="24">
-        <v>3</v>
-      </c>
-      <c r="L5" s="24">
-        <v>4</v>
-      </c>
-      <c r="M5" s="22">
+      <c r="B5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="23">
+        <v>4</v>
+      </c>
+      <c r="D5" s="23">
+        <v>4</v>
+      </c>
+      <c r="E5" s="23">
+        <v>3</v>
+      </c>
+      <c r="F5" s="23">
+        <v>4</v>
+      </c>
+      <c r="G5" s="23">
+        <v>4</v>
+      </c>
+      <c r="H5" s="23">
+        <v>4</v>
+      </c>
+      <c r="I5" s="23">
+        <v>4</v>
+      </c>
+      <c r="J5" s="23">
+        <v>4</v>
+      </c>
+      <c r="K5" s="23">
+        <v>4</v>
+      </c>
+      <c r="L5" s="23">
+        <v>3</v>
+      </c>
+      <c r="M5" s="23">
+        <v>4</v>
+      </c>
+      <c r="N5" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="P5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="30">
+        <f>SUM(Q2:Q4)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="24">
-        <v>3</v>
-      </c>
-      <c r="C6" s="24">
-        <v>3</v>
-      </c>
-      <c r="D6" s="24">
-        <v>3</v>
-      </c>
-      <c r="E6" s="24">
-        <v>3</v>
-      </c>
-      <c r="F6" s="24">
-        <v>4</v>
-      </c>
-      <c r="G6" s="24">
-        <v>3</v>
-      </c>
-      <c r="H6" s="24">
-        <v>3</v>
-      </c>
-      <c r="I6" s="24">
-        <v>3</v>
-      </c>
-      <c r="J6" s="24">
-        <v>3</v>
-      </c>
-      <c r="K6" s="24">
-        <v>3</v>
-      </c>
-      <c r="L6" s="24">
-        <v>3</v>
-      </c>
-      <c r="M6" s="22">
+      <c r="B6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="23">
+        <v>3</v>
+      </c>
+      <c r="D6" s="23">
+        <v>3</v>
+      </c>
+      <c r="E6" s="23">
+        <v>3</v>
+      </c>
+      <c r="F6" s="23">
+        <v>3</v>
+      </c>
+      <c r="G6" s="23">
+        <v>4</v>
+      </c>
+      <c r="H6" s="23">
+        <v>3</v>
+      </c>
+      <c r="I6" s="23">
+        <v>3</v>
+      </c>
+      <c r="J6" s="23">
+        <v>3</v>
+      </c>
+      <c r="K6" s="23">
+        <v>3</v>
+      </c>
+      <c r="L6" s="23">
+        <v>3</v>
+      </c>
+      <c r="M6" s="23">
+        <v>3</v>
+      </c>
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="24">
-        <v>3</v>
-      </c>
-      <c r="C7" s="24">
-        <v>3</v>
-      </c>
-      <c r="D7" s="24">
-        <v>3</v>
-      </c>
-      <c r="E7" s="24">
-        <v>3</v>
-      </c>
-      <c r="F7" s="24">
-        <v>3</v>
-      </c>
-      <c r="G7" s="24">
-        <v>3</v>
-      </c>
-      <c r="H7" s="24">
-        <v>3</v>
-      </c>
-      <c r="I7" s="24">
-        <v>3</v>
-      </c>
-      <c r="J7" s="24">
-        <v>3</v>
-      </c>
-      <c r="K7" s="24">
-        <v>3</v>
-      </c>
-      <c r="L7" s="24">
-        <v>3</v>
-      </c>
-      <c r="M7" s="22">
+      <c r="B7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="23">
+        <v>3</v>
+      </c>
+      <c r="D7" s="23">
+        <v>3</v>
+      </c>
+      <c r="E7" s="23">
+        <v>3</v>
+      </c>
+      <c r="F7" s="23">
+        <v>3</v>
+      </c>
+      <c r="G7" s="23">
+        <v>3</v>
+      </c>
+      <c r="H7" s="23">
+        <v>3</v>
+      </c>
+      <c r="I7" s="23">
+        <v>3</v>
+      </c>
+      <c r="J7" s="23">
+        <v>3</v>
+      </c>
+      <c r="K7" s="23">
+        <v>3</v>
+      </c>
+      <c r="L7" s="23">
+        <v>3</v>
+      </c>
+      <c r="M7" s="23">
+        <v>3</v>
+      </c>
+      <c r="N7" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="24">
-        <v>4</v>
-      </c>
-      <c r="C8" s="24">
-        <v>3</v>
-      </c>
-      <c r="D8" s="24">
-        <v>4</v>
-      </c>
-      <c r="E8" s="24">
-        <v>4</v>
-      </c>
-      <c r="F8" s="24">
-        <v>4</v>
-      </c>
-      <c r="G8" s="24">
-        <v>4</v>
-      </c>
-      <c r="H8" s="24">
-        <v>4</v>
-      </c>
-      <c r="I8" s="24">
-        <v>4</v>
-      </c>
-      <c r="J8" s="24">
-        <v>4</v>
-      </c>
-      <c r="K8" s="24">
-        <v>4</v>
-      </c>
-      <c r="L8" s="24">
-        <v>4</v>
-      </c>
-      <c r="M8" s="22">
+      <c r="B8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="23">
+        <v>4</v>
+      </c>
+      <c r="D8" s="23">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23">
+        <v>4</v>
+      </c>
+      <c r="F8" s="23">
+        <v>4</v>
+      </c>
+      <c r="G8" s="23">
+        <v>4</v>
+      </c>
+      <c r="H8" s="23">
+        <v>4</v>
+      </c>
+      <c r="I8" s="23">
+        <v>4</v>
+      </c>
+      <c r="J8" s="23">
+        <v>4</v>
+      </c>
+      <c r="K8" s="23">
+        <v>4</v>
+      </c>
+      <c r="L8" s="23">
+        <v>4</v>
+      </c>
+      <c r="M8" s="23">
+        <v>4</v>
+      </c>
+      <c r="N8" s="21">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="24">
-        <v>4</v>
-      </c>
-      <c r="C9" s="24">
-        <v>4</v>
-      </c>
-      <c r="D9" s="24">
-        <v>3</v>
-      </c>
-      <c r="E9" s="24">
-        <v>3</v>
-      </c>
-      <c r="F9" s="24">
+      <c r="B9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="23">
+        <v>4</v>
+      </c>
+      <c r="D9" s="23">
+        <v>4</v>
+      </c>
+      <c r="E9" s="23">
+        <v>3</v>
+      </c>
+      <c r="F9" s="23">
+        <v>3</v>
+      </c>
+      <c r="G9" s="23">
         <v>2</v>
       </c>
-      <c r="G9" s="24">
-        <v>4</v>
-      </c>
-      <c r="H9" s="24">
-        <v>4</v>
-      </c>
-      <c r="I9" s="24">
-        <v>4</v>
-      </c>
-      <c r="J9" s="24">
-        <v>3</v>
-      </c>
-      <c r="K9" s="24">
-        <v>3</v>
-      </c>
-      <c r="L9" s="24">
-        <v>3</v>
-      </c>
-      <c r="M9" s="22">
+      <c r="H9" s="23">
+        <v>4</v>
+      </c>
+      <c r="I9" s="23">
+        <v>4</v>
+      </c>
+      <c r="J9" s="23">
+        <v>4</v>
+      </c>
+      <c r="K9" s="23">
+        <v>3</v>
+      </c>
+      <c r="L9" s="23">
+        <v>3</v>
+      </c>
+      <c r="M9" s="23">
+        <v>3</v>
+      </c>
+      <c r="N9" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="24">
-        <v>4</v>
-      </c>
-      <c r="C10" s="24">
-        <v>4</v>
-      </c>
-      <c r="D10" s="24">
-        <v>4</v>
-      </c>
-      <c r="E10" s="24">
-        <v>4</v>
-      </c>
-      <c r="F10" s="24">
-        <v>4</v>
-      </c>
-      <c r="G10" s="24">
-        <v>4</v>
-      </c>
-      <c r="H10" s="24">
-        <v>4</v>
-      </c>
-      <c r="I10" s="24">
-        <v>4</v>
-      </c>
-      <c r="J10" s="24">
-        <v>4</v>
-      </c>
-      <c r="K10" s="24">
-        <v>4</v>
-      </c>
-      <c r="L10" s="24">
-        <v>4</v>
-      </c>
-      <c r="M10" s="22">
+      <c r="B10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="23">
+        <v>4</v>
+      </c>
+      <c r="D10" s="23">
+        <v>4</v>
+      </c>
+      <c r="E10" s="23">
+        <v>4</v>
+      </c>
+      <c r="F10" s="23">
+        <v>4</v>
+      </c>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="23">
+        <v>4</v>
+      </c>
+      <c r="I10" s="23">
+        <v>4</v>
+      </c>
+      <c r="J10" s="23">
+        <v>4</v>
+      </c>
+      <c r="K10" s="23">
+        <v>4</v>
+      </c>
+      <c r="L10" s="23">
+        <v>4</v>
+      </c>
+      <c r="M10" s="23">
+        <v>4</v>
+      </c>
+      <c r="N10" s="21">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="24">
-        <v>4</v>
-      </c>
-      <c r="C11" s="24">
-        <v>4</v>
-      </c>
-      <c r="D11" s="24">
-        <v>4</v>
-      </c>
-      <c r="E11" s="24">
-        <v>3</v>
-      </c>
-      <c r="F11" s="24">
-        <v>4</v>
-      </c>
-      <c r="G11" s="24">
-        <v>3</v>
-      </c>
-      <c r="H11" s="24">
-        <v>4</v>
-      </c>
-      <c r="I11" s="24">
-        <v>3</v>
-      </c>
-      <c r="J11" s="24">
-        <v>4</v>
-      </c>
-      <c r="K11" s="24">
-        <v>3</v>
-      </c>
-      <c r="L11" s="24">
-        <v>4</v>
-      </c>
-      <c r="M11" s="22">
+      <c r="B11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="23">
+        <v>4</v>
+      </c>
+      <c r="D11" s="23">
+        <v>4</v>
+      </c>
+      <c r="E11" s="23">
+        <v>4</v>
+      </c>
+      <c r="F11" s="23">
+        <v>3</v>
+      </c>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="23">
+        <v>3</v>
+      </c>
+      <c r="I11" s="23">
+        <v>4</v>
+      </c>
+      <c r="J11" s="23">
+        <v>3</v>
+      </c>
+      <c r="K11" s="23">
+        <v>4</v>
+      </c>
+      <c r="L11" s="23">
+        <v>3</v>
+      </c>
+      <c r="M11" s="23">
+        <v>4</v>
+      </c>
+      <c r="N11" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="24">
-        <v>4</v>
-      </c>
-      <c r="C12" s="24">
-        <v>4</v>
-      </c>
-      <c r="D12" s="24">
-        <v>4</v>
-      </c>
-      <c r="E12" s="24">
-        <v>3</v>
-      </c>
-      <c r="F12" s="24">
-        <v>4</v>
-      </c>
-      <c r="G12" s="24">
-        <v>4</v>
-      </c>
-      <c r="H12" s="24">
-        <v>4</v>
-      </c>
-      <c r="I12" s="24">
-        <v>4</v>
-      </c>
-      <c r="J12" s="24">
-        <v>4</v>
-      </c>
-      <c r="K12" s="24">
-        <v>3</v>
-      </c>
-      <c r="L12" s="24">
-        <v>4</v>
-      </c>
-      <c r="M12" s="22">
+      <c r="B12" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="23">
+        <v>4</v>
+      </c>
+      <c r="D12" s="23">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23">
+        <v>4</v>
+      </c>
+      <c r="F12" s="23">
+        <v>3</v>
+      </c>
+      <c r="G12" s="23">
+        <v>4</v>
+      </c>
+      <c r="H12" s="23">
+        <v>4</v>
+      </c>
+      <c r="I12" s="23">
+        <v>4</v>
+      </c>
+      <c r="J12" s="23">
+        <v>4</v>
+      </c>
+      <c r="K12" s="23">
+        <v>4</v>
+      </c>
+      <c r="L12" s="23">
+        <v>3</v>
+      </c>
+      <c r="M12" s="23">
+        <v>4</v>
+      </c>
+      <c r="N12" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="24">
-        <v>4</v>
-      </c>
-      <c r="C13" s="24">
-        <v>4</v>
-      </c>
-      <c r="D13" s="24">
-        <v>3</v>
-      </c>
-      <c r="E13" s="24">
-        <v>4</v>
-      </c>
-      <c r="F13" s="24">
-        <v>4</v>
-      </c>
-      <c r="G13" s="24">
-        <v>4</v>
-      </c>
-      <c r="H13" s="24">
-        <v>4</v>
-      </c>
-      <c r="I13" s="24">
-        <v>4</v>
-      </c>
-      <c r="J13" s="24">
-        <v>4</v>
-      </c>
-      <c r="K13" s="24">
-        <v>4</v>
-      </c>
-      <c r="L13" s="24">
-        <v>4</v>
-      </c>
-      <c r="M13" s="22">
+      <c r="B13" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="23">
+        <v>4</v>
+      </c>
+      <c r="D13" s="23">
+        <v>4</v>
+      </c>
+      <c r="E13" s="23">
+        <v>3</v>
+      </c>
+      <c r="F13" s="23">
+        <v>4</v>
+      </c>
+      <c r="G13" s="23">
+        <v>4</v>
+      </c>
+      <c r="H13" s="23">
+        <v>4</v>
+      </c>
+      <c r="I13" s="23">
+        <v>4</v>
+      </c>
+      <c r="J13" s="23">
+        <v>4</v>
+      </c>
+      <c r="K13" s="23">
+        <v>4</v>
+      </c>
+      <c r="L13" s="23">
+        <v>4</v>
+      </c>
+      <c r="M13" s="23">
+        <v>4</v>
+      </c>
+      <c r="N13" s="21">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="24">
-        <v>3</v>
-      </c>
-      <c r="C14" s="24">
-        <v>3</v>
-      </c>
-      <c r="D14" s="24">
-        <v>3</v>
-      </c>
-      <c r="E14" s="24">
-        <v>3</v>
-      </c>
-      <c r="F14" s="24">
-        <v>3</v>
-      </c>
-      <c r="G14" s="24">
-        <v>3</v>
-      </c>
-      <c r="H14" s="24">
-        <v>3</v>
-      </c>
-      <c r="I14" s="24">
-        <v>3</v>
-      </c>
-      <c r="J14" s="24">
-        <v>3</v>
-      </c>
-      <c r="K14" s="24">
-        <v>3</v>
-      </c>
-      <c r="L14" s="24">
-        <v>3</v>
-      </c>
-      <c r="M14" s="22">
+      <c r="B14" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="23">
+        <v>3</v>
+      </c>
+      <c r="D14" s="23">
+        <v>3</v>
+      </c>
+      <c r="E14" s="23">
+        <v>3</v>
+      </c>
+      <c r="F14" s="23">
+        <v>3</v>
+      </c>
+      <c r="G14" s="23">
+        <v>3</v>
+      </c>
+      <c r="H14" s="23">
+        <v>3</v>
+      </c>
+      <c r="I14" s="23">
+        <v>3</v>
+      </c>
+      <c r="J14" s="23">
+        <v>3</v>
+      </c>
+      <c r="K14" s="23">
+        <v>3</v>
+      </c>
+      <c r="L14" s="23">
+        <v>3</v>
+      </c>
+      <c r="M14" s="23">
+        <v>3</v>
+      </c>
+      <c r="N14" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="24">
-        <v>4</v>
-      </c>
-      <c r="C15" s="24">
-        <v>4</v>
-      </c>
-      <c r="D15" s="24">
-        <v>4</v>
-      </c>
-      <c r="E15" s="24">
-        <v>3</v>
-      </c>
-      <c r="F15" s="24">
-        <v>4</v>
-      </c>
-      <c r="G15" s="24">
-        <v>3</v>
-      </c>
-      <c r="H15" s="24">
-        <v>4</v>
-      </c>
-      <c r="I15" s="24">
-        <v>3</v>
-      </c>
-      <c r="J15" s="24">
-        <v>4</v>
-      </c>
-      <c r="K15" s="24">
-        <v>4</v>
-      </c>
-      <c r="L15" s="24">
-        <v>4</v>
-      </c>
-      <c r="M15" s="22">
+      <c r="B15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="23">
+        <v>4</v>
+      </c>
+      <c r="D15" s="23">
+        <v>4</v>
+      </c>
+      <c r="E15" s="23">
+        <v>4</v>
+      </c>
+      <c r="F15" s="23">
+        <v>3</v>
+      </c>
+      <c r="G15" s="23">
+        <v>4</v>
+      </c>
+      <c r="H15" s="23">
+        <v>3</v>
+      </c>
+      <c r="I15" s="23">
+        <v>4</v>
+      </c>
+      <c r="J15" s="23">
+        <v>3</v>
+      </c>
+      <c r="K15" s="23">
+        <v>4</v>
+      </c>
+      <c r="L15" s="23">
+        <v>4</v>
+      </c>
+      <c r="M15" s="23">
+        <v>4</v>
+      </c>
+      <c r="N15" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="24">
-        <v>4</v>
-      </c>
-      <c r="C16" s="24">
-        <v>4</v>
-      </c>
-      <c r="D16" s="24">
-        <v>3</v>
-      </c>
-      <c r="E16" s="24">
-        <v>4</v>
-      </c>
-      <c r="F16" s="24">
-        <v>4</v>
-      </c>
-      <c r="G16" s="24">
-        <v>4</v>
-      </c>
-      <c r="H16" s="24">
-        <v>4</v>
-      </c>
-      <c r="I16" s="24">
-        <v>4</v>
-      </c>
-      <c r="J16" s="24">
-        <v>4</v>
-      </c>
-      <c r="K16" s="24">
-        <v>3</v>
-      </c>
-      <c r="L16" s="24">
-        <v>4</v>
-      </c>
-      <c r="M16" s="22">
+      <c r="B16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="23">
+        <v>4</v>
+      </c>
+      <c r="D16" s="23">
+        <v>4</v>
+      </c>
+      <c r="E16" s="23">
+        <v>3</v>
+      </c>
+      <c r="F16" s="23">
+        <v>4</v>
+      </c>
+      <c r="G16" s="23">
+        <v>4</v>
+      </c>
+      <c r="H16" s="23">
+        <v>4</v>
+      </c>
+      <c r="I16" s="23">
+        <v>4</v>
+      </c>
+      <c r="J16" s="23">
+        <v>4</v>
+      </c>
+      <c r="K16" s="23">
+        <v>4</v>
+      </c>
+      <c r="L16" s="23">
+        <v>3</v>
+      </c>
+      <c r="M16" s="23">
+        <v>4</v>
+      </c>
+      <c r="N16" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="24">
-        <v>3</v>
-      </c>
-      <c r="C17" s="24">
-        <v>3</v>
-      </c>
-      <c r="D17" s="24">
-        <v>3</v>
-      </c>
-      <c r="E17" s="24">
-        <v>3</v>
-      </c>
-      <c r="F17" s="24">
-        <v>4</v>
-      </c>
-      <c r="G17" s="24">
-        <v>3</v>
-      </c>
-      <c r="H17" s="24">
-        <v>3</v>
-      </c>
-      <c r="I17" s="24">
-        <v>3</v>
-      </c>
-      <c r="J17" s="24">
-        <v>3</v>
-      </c>
-      <c r="K17" s="24">
-        <v>3</v>
-      </c>
-      <c r="L17" s="24">
-        <v>3</v>
-      </c>
-      <c r="M17" s="22">
+      <c r="B17" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="23">
+        <v>3</v>
+      </c>
+      <c r="D17" s="23">
+        <v>3</v>
+      </c>
+      <c r="E17" s="23">
+        <v>3</v>
+      </c>
+      <c r="F17" s="23">
+        <v>3</v>
+      </c>
+      <c r="G17" s="23">
+        <v>4</v>
+      </c>
+      <c r="H17" s="23">
+        <v>3</v>
+      </c>
+      <c r="I17" s="23">
+        <v>3</v>
+      </c>
+      <c r="J17" s="23">
+        <v>3</v>
+      </c>
+      <c r="K17" s="23">
+        <v>3</v>
+      </c>
+      <c r="L17" s="23">
+        <v>3</v>
+      </c>
+      <c r="M17" s="23">
+        <v>3</v>
+      </c>
+      <c r="N17" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="24">
-        <v>4</v>
-      </c>
-      <c r="C18" s="24">
-        <v>4</v>
-      </c>
-      <c r="D18" s="24">
-        <v>3</v>
-      </c>
-      <c r="E18" s="24">
-        <v>3</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="B18" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="23">
+        <v>4</v>
+      </c>
+      <c r="D18" s="23">
+        <v>4</v>
+      </c>
+      <c r="E18" s="23">
+        <v>3</v>
+      </c>
+      <c r="F18" s="23">
+        <v>3</v>
+      </c>
+      <c r="G18" s="23">
         <v>2</v>
       </c>
-      <c r="G18" s="24">
-        <v>4</v>
-      </c>
-      <c r="H18" s="24">
-        <v>4</v>
-      </c>
-      <c r="I18" s="24">
-        <v>4</v>
-      </c>
-      <c r="J18" s="24">
-        <v>3</v>
-      </c>
-      <c r="K18" s="24">
-        <v>3</v>
-      </c>
-      <c r="L18" s="24">
-        <v>3</v>
-      </c>
-      <c r="M18" s="22">
+      <c r="H18" s="23">
+        <v>4</v>
+      </c>
+      <c r="I18" s="23">
+        <v>4</v>
+      </c>
+      <c r="J18" s="23">
+        <v>4</v>
+      </c>
+      <c r="K18" s="23">
+        <v>3</v>
+      </c>
+      <c r="L18" s="23">
+        <v>3</v>
+      </c>
+      <c r="M18" s="23">
+        <v>3</v>
+      </c>
+      <c r="N18" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="24">
-        <v>4</v>
-      </c>
-      <c r="C19" s="24">
-        <v>4</v>
-      </c>
-      <c r="D19" s="24">
-        <v>4</v>
-      </c>
-      <c r="E19" s="24">
-        <v>4</v>
-      </c>
-      <c r="F19" s="24">
-        <v>4</v>
-      </c>
-      <c r="G19" s="24">
-        <v>4</v>
-      </c>
-      <c r="H19" s="24">
-        <v>4</v>
-      </c>
-      <c r="I19" s="24">
-        <v>4</v>
-      </c>
-      <c r="J19" s="24">
-        <v>4</v>
-      </c>
-      <c r="K19" s="24">
-        <v>3</v>
-      </c>
-      <c r="L19" s="24">
-        <v>4</v>
-      </c>
-      <c r="M19" s="22">
+      <c r="B19" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="23">
+        <v>4</v>
+      </c>
+      <c r="D19" s="23">
+        <v>4</v>
+      </c>
+      <c r="E19" s="23">
+        <v>4</v>
+      </c>
+      <c r="F19" s="23">
+        <v>4</v>
+      </c>
+      <c r="G19" s="23">
+        <v>4</v>
+      </c>
+      <c r="H19" s="23">
+        <v>4</v>
+      </c>
+      <c r="I19" s="23">
+        <v>4</v>
+      </c>
+      <c r="J19" s="23">
+        <v>4</v>
+      </c>
+      <c r="K19" s="23">
+        <v>4</v>
+      </c>
+      <c r="L19" s="23">
+        <v>3</v>
+      </c>
+      <c r="M19" s="23">
+        <v>4</v>
+      </c>
+      <c r="N19" s="21">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="24">
-        <v>4</v>
-      </c>
-      <c r="C20" s="24">
-        <v>4</v>
-      </c>
-      <c r="D20" s="24">
-        <v>3</v>
-      </c>
-      <c r="E20" s="24">
-        <v>4</v>
-      </c>
-      <c r="F20" s="24">
-        <v>3</v>
-      </c>
-      <c r="G20" s="24">
-        <v>3</v>
-      </c>
-      <c r="H20" s="24">
-        <v>3</v>
-      </c>
-      <c r="I20" s="24">
-        <v>3</v>
-      </c>
-      <c r="J20" s="24">
-        <v>4</v>
-      </c>
-      <c r="K20" s="24">
-        <v>4</v>
-      </c>
-      <c r="L20" s="24">
-        <v>4</v>
-      </c>
-      <c r="M20" s="22">
+      <c r="B20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="23">
+        <v>4</v>
+      </c>
+      <c r="D20" s="23">
+        <v>4</v>
+      </c>
+      <c r="E20" s="23">
+        <v>3</v>
+      </c>
+      <c r="F20" s="23">
+        <v>4</v>
+      </c>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="23">
+        <v>3</v>
+      </c>
+      <c r="I20" s="23">
+        <v>3</v>
+      </c>
+      <c r="J20" s="23">
+        <v>3</v>
+      </c>
+      <c r="K20" s="23">
+        <v>4</v>
+      </c>
+      <c r="L20" s="23">
+        <v>4</v>
+      </c>
+      <c r="M20" s="23">
+        <v>4</v>
+      </c>
+      <c r="N20" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="24">
-        <v>4</v>
-      </c>
-      <c r="C21" s="24">
-        <v>4</v>
-      </c>
-      <c r="D21" s="24">
-        <v>3</v>
-      </c>
-      <c r="E21" s="24">
-        <v>3</v>
-      </c>
-      <c r="F21" s="24">
-        <v>4</v>
-      </c>
-      <c r="G21" s="24">
-        <v>4</v>
-      </c>
-      <c r="H21" s="24">
-        <v>4</v>
-      </c>
-      <c r="I21" s="24">
-        <v>4</v>
-      </c>
-      <c r="J21" s="24">
-        <v>3</v>
-      </c>
-      <c r="K21" s="24">
-        <v>3</v>
-      </c>
-      <c r="L21" s="24">
-        <v>3</v>
-      </c>
-      <c r="M21" s="22">
+      <c r="B21" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="23">
+        <v>4</v>
+      </c>
+      <c r="D21" s="23">
+        <v>4</v>
+      </c>
+      <c r="E21" s="23">
+        <v>3</v>
+      </c>
+      <c r="F21" s="23">
+        <v>3</v>
+      </c>
+      <c r="G21" s="23">
+        <v>4</v>
+      </c>
+      <c r="H21" s="23">
+        <v>4</v>
+      </c>
+      <c r="I21" s="23">
+        <v>4</v>
+      </c>
+      <c r="J21" s="23">
+        <v>4</v>
+      </c>
+      <c r="K21" s="23">
+        <v>3</v>
+      </c>
+      <c r="L21" s="23">
+        <v>3</v>
+      </c>
+      <c r="M21" s="23">
+        <v>3</v>
+      </c>
+      <c r="N21" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="24">
-        <v>4</v>
-      </c>
-      <c r="C22" s="24">
-        <v>3</v>
-      </c>
-      <c r="D22" s="24">
-        <v>4</v>
-      </c>
-      <c r="E22" s="24">
-        <v>3</v>
-      </c>
-      <c r="F22" s="24">
-        <v>4</v>
-      </c>
-      <c r="G22" s="24">
-        <v>4</v>
-      </c>
-      <c r="H22" s="24">
-        <v>4</v>
-      </c>
-      <c r="I22" s="24">
-        <v>4</v>
-      </c>
-      <c r="J22" s="24">
-        <v>3</v>
-      </c>
-      <c r="K22" s="24">
-        <v>4</v>
-      </c>
-      <c r="L22" s="24">
-        <v>3</v>
-      </c>
-      <c r="M22" s="22">
+      <c r="B22" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="23">
+        <v>4</v>
+      </c>
+      <c r="D22" s="23">
+        <v>3</v>
+      </c>
+      <c r="E22" s="23">
+        <v>4</v>
+      </c>
+      <c r="F22" s="23">
+        <v>3</v>
+      </c>
+      <c r="G22" s="23">
+        <v>4</v>
+      </c>
+      <c r="H22" s="23">
+        <v>4</v>
+      </c>
+      <c r="I22" s="23">
+        <v>4</v>
+      </c>
+      <c r="J22" s="23">
+        <v>4</v>
+      </c>
+      <c r="K22" s="23">
+        <v>3</v>
+      </c>
+      <c r="L22" s="23">
+        <v>4</v>
+      </c>
+      <c r="M22" s="23">
+        <v>3</v>
+      </c>
+      <c r="N22" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="24">
-        <v>4</v>
-      </c>
-      <c r="C23" s="24">
-        <v>4</v>
-      </c>
-      <c r="D23" s="24">
-        <v>4</v>
-      </c>
-      <c r="E23" s="24">
-        <v>4</v>
-      </c>
-      <c r="F23" s="24">
-        <v>4</v>
-      </c>
-      <c r="G23" s="24">
-        <v>4</v>
-      </c>
-      <c r="H23" s="24">
-        <v>4</v>
-      </c>
-      <c r="I23" s="24">
-        <v>4</v>
-      </c>
-      <c r="J23" s="24">
-        <v>4</v>
-      </c>
-      <c r="K23" s="24">
-        <v>4</v>
-      </c>
-      <c r="L23" s="24">
-        <v>4</v>
-      </c>
-      <c r="M23" s="22">
+      <c r="B23" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="23">
+        <v>4</v>
+      </c>
+      <c r="F23" s="23">
+        <v>4</v>
+      </c>
+      <c r="G23" s="23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="23">
+        <v>4</v>
+      </c>
+      <c r="I23" s="23">
+        <v>4</v>
+      </c>
+      <c r="J23" s="23">
+        <v>4</v>
+      </c>
+      <c r="K23" s="23">
+        <v>4</v>
+      </c>
+      <c r="L23" s="23">
+        <v>4</v>
+      </c>
+      <c r="M23" s="23">
+        <v>4</v>
+      </c>
+      <c r="N23" s="21">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="24">
-        <v>4</v>
-      </c>
-      <c r="C24" s="24">
-        <v>4</v>
-      </c>
-      <c r="D24" s="24">
-        <v>4</v>
-      </c>
-      <c r="E24" s="24">
-        <v>3</v>
-      </c>
-      <c r="F24" s="24">
-        <v>4</v>
-      </c>
-      <c r="G24" s="24">
-        <v>4</v>
-      </c>
-      <c r="H24" s="24">
-        <v>4</v>
-      </c>
-      <c r="I24" s="24">
-        <v>4</v>
-      </c>
-      <c r="J24" s="24">
-        <v>4</v>
-      </c>
-      <c r="K24" s="24">
-        <v>3</v>
-      </c>
-      <c r="L24" s="24">
-        <v>3</v>
-      </c>
-      <c r="M24" s="22">
+      <c r="B24" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="23">
+        <v>4</v>
+      </c>
+      <c r="D24" s="23">
+        <v>4</v>
+      </c>
+      <c r="E24" s="23">
+        <v>4</v>
+      </c>
+      <c r="F24" s="23">
+        <v>3</v>
+      </c>
+      <c r="G24" s="23">
+        <v>4</v>
+      </c>
+      <c r="H24" s="23">
+        <v>4</v>
+      </c>
+      <c r="I24" s="23">
+        <v>4</v>
+      </c>
+      <c r="J24" s="23">
+        <v>4</v>
+      </c>
+      <c r="K24" s="23">
+        <v>4</v>
+      </c>
+      <c r="L24" s="23">
+        <v>3</v>
+      </c>
+      <c r="M24" s="23">
+        <v>3</v>
+      </c>
+      <c r="N24" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="24">
-        <v>4</v>
-      </c>
-      <c r="C25" s="24">
-        <v>3</v>
-      </c>
-      <c r="D25" s="24">
-        <v>4</v>
-      </c>
-      <c r="E25" s="24">
-        <v>4</v>
-      </c>
-      <c r="F25" s="24">
-        <v>4</v>
-      </c>
-      <c r="G25" s="24">
-        <v>4</v>
-      </c>
-      <c r="H25" s="24">
-        <v>4</v>
-      </c>
-      <c r="I25" s="24">
-        <v>4</v>
-      </c>
-      <c r="J25" s="24">
-        <v>4</v>
-      </c>
-      <c r="K25" s="24">
-        <v>3</v>
-      </c>
-      <c r="L25" s="24">
-        <v>4</v>
-      </c>
-      <c r="M25" s="22">
+      <c r="B25" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="23">
+        <v>4</v>
+      </c>
+      <c r="D25" s="23">
+        <v>3</v>
+      </c>
+      <c r="E25" s="23">
+        <v>4</v>
+      </c>
+      <c r="F25" s="23">
+        <v>4</v>
+      </c>
+      <c r="G25" s="23">
+        <v>4</v>
+      </c>
+      <c r="H25" s="23">
+        <v>4</v>
+      </c>
+      <c r="I25" s="23">
+        <v>4</v>
+      </c>
+      <c r="J25" s="23">
+        <v>4</v>
+      </c>
+      <c r="K25" s="23">
+        <v>4</v>
+      </c>
+      <c r="L25" s="23">
+        <v>3</v>
+      </c>
+      <c r="M25" s="23">
+        <v>4</v>
+      </c>
+      <c r="N25" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="24">
-        <v>4</v>
-      </c>
-      <c r="C26" s="24">
-        <v>4</v>
-      </c>
-      <c r="D26" s="24">
-        <v>3</v>
-      </c>
-      <c r="E26" s="24">
-        <v>3</v>
-      </c>
-      <c r="F26" s="24">
-        <v>4</v>
-      </c>
-      <c r="G26" s="24">
-        <v>3</v>
-      </c>
-      <c r="H26" s="24">
-        <v>3</v>
-      </c>
-      <c r="I26" s="24">
-        <v>4</v>
-      </c>
-      <c r="J26" s="24">
-        <v>4</v>
-      </c>
-      <c r="K26" s="24">
-        <v>3</v>
-      </c>
-      <c r="L26" s="24">
-        <v>4</v>
-      </c>
-      <c r="M26" s="22">
+      <c r="B26" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="23">
+        <v>4</v>
+      </c>
+      <c r="D26" s="23">
+        <v>4</v>
+      </c>
+      <c r="E26" s="23">
+        <v>3</v>
+      </c>
+      <c r="F26" s="23">
+        <v>3</v>
+      </c>
+      <c r="G26" s="23">
+        <v>4</v>
+      </c>
+      <c r="H26" s="23">
+        <v>3</v>
+      </c>
+      <c r="I26" s="23">
+        <v>3</v>
+      </c>
+      <c r="J26" s="23">
+        <v>4</v>
+      </c>
+      <c r="K26" s="23">
+        <v>4</v>
+      </c>
+      <c r="L26" s="23">
+        <v>3</v>
+      </c>
+      <c r="M26" s="23">
+        <v>4</v>
+      </c>
+      <c r="N26" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="24">
-        <v>4</v>
-      </c>
-      <c r="C27" s="24">
-        <v>4</v>
-      </c>
-      <c r="D27" s="24">
-        <v>4</v>
-      </c>
-      <c r="E27" s="24">
-        <v>3</v>
-      </c>
-      <c r="F27" s="24">
-        <v>3</v>
-      </c>
-      <c r="G27" s="24">
-        <v>3</v>
-      </c>
-      <c r="H27" s="24">
-        <v>4</v>
-      </c>
-      <c r="I27" s="24">
-        <v>3</v>
-      </c>
-      <c r="J27" s="24">
-        <v>4</v>
-      </c>
-      <c r="K27" s="24">
-        <v>4</v>
-      </c>
-      <c r="L27" s="24">
-        <v>4</v>
-      </c>
-      <c r="M27" s="22">
+      <c r="B27" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="23">
+        <v>4</v>
+      </c>
+      <c r="D27" s="23">
+        <v>4</v>
+      </c>
+      <c r="E27" s="23">
+        <v>4</v>
+      </c>
+      <c r="F27" s="23">
+        <v>3</v>
+      </c>
+      <c r="G27" s="23">
+        <v>3</v>
+      </c>
+      <c r="H27" s="23">
+        <v>3</v>
+      </c>
+      <c r="I27" s="23">
+        <v>4</v>
+      </c>
+      <c r="J27" s="23">
+        <v>3</v>
+      </c>
+      <c r="K27" s="23">
+        <v>4</v>
+      </c>
+      <c r="L27" s="23">
+        <v>4</v>
+      </c>
+      <c r="M27" s="23">
+        <v>4</v>
+      </c>
+      <c r="N27" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+    <row r="28" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="24">
-        <v>3</v>
-      </c>
-      <c r="C28" s="24">
-        <v>4</v>
-      </c>
-      <c r="D28" s="24">
-        <v>3</v>
-      </c>
-      <c r="E28" s="24">
-        <v>4</v>
-      </c>
-      <c r="F28" s="24">
-        <v>4</v>
-      </c>
-      <c r="G28" s="24">
-        <v>3</v>
-      </c>
-      <c r="H28" s="24">
-        <v>4</v>
-      </c>
-      <c r="I28" s="24">
-        <v>3</v>
-      </c>
-      <c r="J28" s="24">
-        <v>3</v>
-      </c>
-      <c r="K28" s="24">
-        <v>4</v>
-      </c>
-      <c r="L28" s="24">
-        <v>4</v>
-      </c>
-      <c r="M28" s="22">
+      <c r="B28" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="23">
+        <v>3</v>
+      </c>
+      <c r="D28" s="23">
+        <v>4</v>
+      </c>
+      <c r="E28" s="23">
+        <v>3</v>
+      </c>
+      <c r="F28" s="23">
+        <v>4</v>
+      </c>
+      <c r="G28" s="23">
+        <v>4</v>
+      </c>
+      <c r="H28" s="23">
+        <v>3</v>
+      </c>
+      <c r="I28" s="23">
+        <v>4</v>
+      </c>
+      <c r="J28" s="23">
+        <v>3</v>
+      </c>
+      <c r="K28" s="23">
+        <v>3</v>
+      </c>
+      <c r="L28" s="23">
+        <v>4</v>
+      </c>
+      <c r="M28" s="23">
+        <v>4</v>
+      </c>
+      <c r="N28" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="24">
-        <v>4</v>
-      </c>
-      <c r="C29" s="24">
-        <v>4</v>
-      </c>
-      <c r="D29" s="24">
-        <v>4</v>
-      </c>
-      <c r="E29" s="24">
-        <v>3</v>
-      </c>
-      <c r="F29" s="24">
-        <v>4</v>
-      </c>
-      <c r="G29" s="24">
-        <v>4</v>
-      </c>
-      <c r="H29" s="24">
-        <v>3</v>
-      </c>
-      <c r="I29" s="24">
-        <v>4</v>
-      </c>
-      <c r="J29" s="24">
-        <v>4</v>
-      </c>
-      <c r="K29" s="24">
-        <v>3</v>
-      </c>
-      <c r="L29" s="24">
-        <v>4</v>
-      </c>
-      <c r="M29" s="22">
+      <c r="B29" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="23">
+        <v>4</v>
+      </c>
+      <c r="D29" s="23">
+        <v>4</v>
+      </c>
+      <c r="E29" s="23">
+        <v>4</v>
+      </c>
+      <c r="F29" s="23">
+        <v>3</v>
+      </c>
+      <c r="G29" s="23">
+        <v>4</v>
+      </c>
+      <c r="H29" s="23">
+        <v>4</v>
+      </c>
+      <c r="I29" s="23">
+        <v>3</v>
+      </c>
+      <c r="J29" s="23">
+        <v>4</v>
+      </c>
+      <c r="K29" s="23">
+        <v>4</v>
+      </c>
+      <c r="L29" s="23">
+        <v>3</v>
+      </c>
+      <c r="M29" s="23">
+        <v>4</v>
+      </c>
+      <c r="N29" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="24">
-        <v>4</v>
-      </c>
-      <c r="C30" s="24">
-        <v>3</v>
-      </c>
-      <c r="D30" s="24">
-        <v>4</v>
-      </c>
-      <c r="E30" s="24">
-        <v>4</v>
-      </c>
-      <c r="F30" s="24">
-        <v>4</v>
-      </c>
-      <c r="G30" s="24">
-        <v>3</v>
-      </c>
-      <c r="H30" s="24">
-        <v>3</v>
-      </c>
-      <c r="I30" s="24">
-        <v>4</v>
-      </c>
-      <c r="J30" s="24">
-        <v>4</v>
-      </c>
-      <c r="K30" s="24">
-        <v>3</v>
-      </c>
-      <c r="L30" s="24">
-        <v>4</v>
-      </c>
-      <c r="M30" s="22">
+      <c r="B30" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="23">
+        <v>4</v>
+      </c>
+      <c r="D30" s="23">
+        <v>3</v>
+      </c>
+      <c r="E30" s="23">
+        <v>4</v>
+      </c>
+      <c r="F30" s="23">
+        <v>4</v>
+      </c>
+      <c r="G30" s="23">
+        <v>4</v>
+      </c>
+      <c r="H30" s="23">
+        <v>3</v>
+      </c>
+      <c r="I30" s="23">
+        <v>3</v>
+      </c>
+      <c r="J30" s="23">
+        <v>4</v>
+      </c>
+      <c r="K30" s="23">
+        <v>4</v>
+      </c>
+      <c r="L30" s="23">
+        <v>3</v>
+      </c>
+      <c r="M30" s="23">
+        <v>4</v>
+      </c>
+      <c r="N30" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="24">
-        <v>3</v>
-      </c>
-      <c r="C31" s="24">
-        <v>4</v>
-      </c>
-      <c r="D31" s="24">
-        <v>4</v>
-      </c>
-      <c r="E31" s="24">
-        <v>4</v>
-      </c>
-      <c r="F31" s="24">
-        <v>4</v>
-      </c>
-      <c r="G31" s="24">
-        <v>4</v>
-      </c>
-      <c r="H31" s="24">
-        <v>4</v>
-      </c>
-      <c r="I31" s="24">
-        <v>3</v>
-      </c>
-      <c r="J31" s="24">
-        <v>4</v>
-      </c>
-      <c r="K31" s="24">
-        <v>3</v>
-      </c>
-      <c r="L31" s="24">
-        <v>4</v>
-      </c>
-      <c r="M31" s="22">
+      <c r="B31" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="23">
+        <v>3</v>
+      </c>
+      <c r="D31" s="23">
+        <v>4</v>
+      </c>
+      <c r="E31" s="23">
+        <v>4</v>
+      </c>
+      <c r="F31" s="23">
+        <v>4</v>
+      </c>
+      <c r="G31" s="23">
+        <v>4</v>
+      </c>
+      <c r="H31" s="23">
+        <v>4</v>
+      </c>
+      <c r="I31" s="23">
+        <v>4</v>
+      </c>
+      <c r="J31" s="23">
+        <v>3</v>
+      </c>
+      <c r="K31" s="23">
+        <v>4</v>
+      </c>
+      <c r="L31" s="23">
+        <v>3</v>
+      </c>
+      <c r="M31" s="23">
+        <v>4</v>
+      </c>
+      <c r="N31" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -2093,11 +2265,11 @@
         <v>0</v>
       </c>
       <c r="B34" s="12">
-        <f>CORREL(B2:B31,$M$2:$M$31)</f>
+        <f>CORREL(C2:C31,$N$2:$N$31)</f>
         <v>0.67311824069731852</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" ref="C34:L34" si="1">CORREL(C2:C31,$M$2:$M$31)</f>
+        <f t="shared" ref="B34:L34" si="1">CORREL(D2:D31,$N$2:$N$31)</f>
         <v>0.47628436025345156</v>
       </c>
       <c r="D34" s="12">
@@ -2143,37 +2315,37 @@
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <v>0.34899999999999998</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <v>0.34899999999999998</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <v>0.34899999999999998</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>0.34899999999999998</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>0.34899999999999998</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <v>0.34899999999999998</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="22">
         <v>0.34899999999999998</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>0.34899999999999998</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <v>0.34899999999999998</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="22">
         <v>0.34899999999999998</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="22">
         <v>0.34899999999999998</v>
       </c>
       <c r="M35" s="10"/>
@@ -2228,7 +2400,7 @@
         <v>V</v>
       </c>
       <c r="M36" s="18">
-        <f>VAR(M2:M31)</f>
+        <f>VAR(N2:N31)</f>
         <v>9.7517241379310313</v>
       </c>
       <c r="N36" s="19" t="s">
@@ -2240,11 +2412,11 @@
         <v>3</v>
       </c>
       <c r="B37" s="11">
-        <f>VAR(B2:B31)</f>
+        <f t="shared" ref="B37:L37" si="3">VAR(C2:C31)</f>
         <v>0.16551724137931073</v>
       </c>
       <c r="C37" s="11">
-        <f t="shared" ref="C37:L37" si="3">VAR(C2:C31)</f>
+        <f t="shared" si="3"/>
         <v>0.20229885057471292</v>
       </c>
       <c r="D37" s="11">
@@ -2391,22 +2563,22 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="14">
         <v>0.05</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
